--- a/Fuzzy_Sets_Viewer.xlsx
+++ b/Fuzzy_Sets_Viewer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\AI -  Assn2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EA463E-B74A-4F10-B67F-194AD852C5C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F304074D-7DEA-46E2-9624-7735E0F50167}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="3" r:id="rId1"/>
@@ -12473,70 +12473,70 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.96666666666286682</c:v>
+                  <c:v>0.97777777777524455</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.89999999999613345</c:v>
+                  <c:v>0.93333333333075563</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.83333333332939996</c:v>
+                  <c:v>0.88888888888626671</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.7666666666626667</c:v>
+                  <c:v>0.84444444444177791</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.69999999999593332</c:v>
+                  <c:v>0.79999999999728899</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.63333333332920005</c:v>
+                  <c:v>0.75555555555280007</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.56666666666246668</c:v>
+                  <c:v>0.71111111110831116</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.49999999999573336</c:v>
+                  <c:v>0.66666666666382224</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.43333333332900004</c:v>
+                  <c:v>0.62222222221933343</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.36666666666226666</c:v>
+                  <c:v>0.57777777777484451</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.29999999999553334</c:v>
+                  <c:v>0.5333333333303556</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.23333333332880002</c:v>
+                  <c:v>0.48888888888586668</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.16666666666206734</c:v>
+                  <c:v>0.44444444444137826</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.9999999995334002E-2</c:v>
+                  <c:v>0.39999999999688934</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.3333333328600667E-2</c:v>
+                  <c:v>0.35555555555240043</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>0.31111111110791156</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>0.2666666666634227</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>0.22222222221893378</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>0.1777777777744449</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>0.13333333332995601</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>8.8888888885467116E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>4.4444444440978136E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
@@ -13481,61 +13481,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.3333333337133286E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.10000000000386662</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.16666666667059996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.23333333333733328</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.30000000000406662</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.36666666667079995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.43333333333753327</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.50000000000426659</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.56666666667099996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.63333333333773323</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.7000000000044666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.76666666667119998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.83333333333793258</c:v>
+                  <c:v>9.8558066469982858E-12</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.90000000000466585</c:v>
+                  <c:v>0.14285714286714152</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.96666666667139922</c:v>
+                  <c:v>0.28571428572442725</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1</c:v>
+                  <c:v>0.42857142858171293</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1</c:v>
+                  <c:v>0.57142857143899861</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1</c:v>
+                  <c:v>0.71428571429628429</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1</c:v>
+                  <c:v>0.85714285715356997</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1</c:v>
@@ -13556,64 +13556,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999998828715</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1</c:v>
+                  <c:v>0.85714285713100147</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1</c:v>
+                  <c:v>0.71428571427371579</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1</c:v>
+                  <c:v>0.57142857141643</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1</c:v>
+                  <c:v>0.42857142855914432</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.96666666666086731</c:v>
+                  <c:v>0.28571428570185858</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.89999999999413394</c:v>
+                  <c:v>0.14285714284457288</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.83333333332740001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.76666666666066663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.69999999999393325</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.63333333332719999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.56666666666046672</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.4999999999937334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.43333333332700003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.3666666666602667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.29999999999353338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.23333333332680004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.16666666666006671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9.999999999333338E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3.3333333326600045E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>0</c:v>
@@ -14555,73 +14555,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>7.8992368202079904E-12</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>0.100000000007999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>0.200000000008099</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>0.30000000000819899</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>0.40000000000829899</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>0.50000000000839906</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>0.60000000000849907</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>0.70000000000859908</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.3333333339132701E-2</c:v>
+                  <c:v>0.80000000000869909</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.10000000000586604</c:v>
+                  <c:v>0.90000000000879909</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.16666666667260002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.23333333333933334</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.30000000000606669</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.3666666666727999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.43333333333953328</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.50000000000626654</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.56666666667299992</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.6333333333397333</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.70000000000646656</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.76666666667319994</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.8333333333399332</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.90000000000666647</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.96666666667339984</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>1</c:v>
@@ -14645,73 +14645,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999515543</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1</c:v>
+                  <c:v>0.95555555555066662</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1</c:v>
+                  <c:v>0.91111111110617771</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1</c:v>
+                  <c:v>0.86666666666168879</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1</c:v>
+                  <c:v>0.82222222221719998</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1</c:v>
+                  <c:v>0.77777777777271107</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1</c:v>
+                  <c:v>0.73333333332822215</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1</c:v>
+                  <c:v>0.68888888888373323</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.96666666665886669</c:v>
+                  <c:v>0.64444444443924442</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.89999999999213331</c:v>
+                  <c:v>0.59999999999475551</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.83333333332539994</c:v>
+                  <c:v>0.55555555555026659</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.76666666665866667</c:v>
+                  <c:v>0.51111111110577778</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.6999999999919333</c:v>
+                  <c:v>0.46666666666128886</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.63333333332519992</c:v>
+                  <c:v>0.42222222221679995</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.56666666665846666</c:v>
+                  <c:v>0.37777777777231109</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.49999999999173333</c:v>
+                  <c:v>0.33333333332782217</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.43333333332499996</c:v>
+                  <c:v>0.28888888888333331</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.36666666665826664</c:v>
+                  <c:v>0.24444444443884442</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.29999999999153332</c:v>
+                  <c:v>0.19999999999435553</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.23333333332479997</c:v>
+                  <c:v>0.15555555554986664</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.16666666665806701</c:v>
+                  <c:v>0.111111111105378</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>9.9999999991333674E-2</c:v>
+                  <c:v>6.6666666660889121E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.3333333324600346E-2</c:v>
+                  <c:v>2.2222222216400227E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>0</c:v>
@@ -21549,7 +21549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -33388,8 +33388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80852986-C994-4AE5-B43E-409E55245785}">
   <dimension ref="A1:N225"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33496,7 +33496,7 @@
         <v>-0.22500000000000001</v>
       </c>
       <c r="E8" s="7">
-        <v>-7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
@@ -33507,7 +33507,7 @@
       </c>
       <c r="H8" s="1">
         <f>1/(D8-E8)</f>
-        <v>-6.6666666666666661</v>
+        <v>-4.4444444444444446</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -33515,27 +33515,27 @@
         <v>17</v>
       </c>
       <c r="B9" s="7">
-        <v>-0.22500000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="C9" s="7">
-        <v>-7.4999999999999997E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="D9" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="11">
-        <v>0.22500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="1">
         <f>1/(C9-B9)</f>
-        <v>6.6666666666666661</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="H9" s="1">
         <f>1/(D9-E9)</f>
-        <v>-6.6666666666666661</v>
+        <v>-14.285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -33543,13 +33543,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="7">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D10" s="11">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="E10" s="11">
         <v>0.52500000000000002</v>
@@ -33559,11 +33559,11 @@
       </c>
       <c r="G10" s="1">
         <f>1/(C10-B10)</f>
-        <v>6.6666666666666661</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
         <f>1/(D10-E10)</f>
-        <v>-6.6666666666666661</v>
+        <v>-4.4444444444444438</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -35932,14 +35932,14 @@
       </c>
       <c r="E96" s="16">
         <f t="shared" si="1"/>
-        <v>0.96666666666286682</v>
+        <v>0.97777777777524455</v>
       </c>
       <c r="G96" s="17">
         <v>-0.21999999999943001</v>
       </c>
       <c r="H96" s="15">
         <f t="shared" si="2"/>
-        <v>3.3333333337133286E-2</v>
+        <v>0</v>
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="17">
@@ -35971,14 +35971,14 @@
       </c>
       <c r="E97" s="16">
         <f t="shared" si="1"/>
-        <v>0.89999999999613345</v>
+        <v>0.93333333333075563</v>
       </c>
       <c r="G97" s="17">
         <v>-0.20999999999942001</v>
       </c>
       <c r="H97" s="15">
         <f t="shared" si="2"/>
-        <v>0.10000000000386662</v>
+        <v>0</v>
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="17">
@@ -36010,14 +36010,14 @@
       </c>
       <c r="E98" s="16">
         <f t="shared" si="1"/>
-        <v>0.83333333332939996</v>
+        <v>0.88888888888626671</v>
       </c>
       <c r="G98" s="17">
         <v>-0.19999999999941001</v>
       </c>
       <c r="H98" s="15">
         <f t="shared" si="2"/>
-        <v>0.16666666667059996</v>
+        <v>0</v>
       </c>
       <c r="I98" s="14"/>
       <c r="J98" s="17">
@@ -36049,14 +36049,14 @@
       </c>
       <c r="E99" s="16">
         <f t="shared" si="1"/>
-        <v>0.7666666666626667</v>
+        <v>0.84444444444177791</v>
       </c>
       <c r="G99" s="17">
         <v>-0.18999999999940001</v>
       </c>
       <c r="H99" s="15">
         <f t="shared" si="2"/>
-        <v>0.23333333333733328</v>
+        <v>0</v>
       </c>
       <c r="I99" s="14"/>
       <c r="J99" s="17">
@@ -36088,14 +36088,14 @@
       </c>
       <c r="E100" s="16">
         <f t="shared" si="1"/>
-        <v>0.69999999999593332</v>
+        <v>0.79999999999728899</v>
       </c>
       <c r="G100" s="17">
         <v>-0.17999999999939001</v>
       </c>
       <c r="H100" s="15">
         <f t="shared" si="2"/>
-        <v>0.30000000000406662</v>
+        <v>0</v>
       </c>
       <c r="I100" s="14"/>
       <c r="J100" s="17">
@@ -36127,14 +36127,14 @@
       </c>
       <c r="E101" s="16">
         <f t="shared" si="1"/>
-        <v>0.63333333332920005</v>
+        <v>0.75555555555280007</v>
       </c>
       <c r="G101" s="17">
         <v>-0.16999999999938001</v>
       </c>
       <c r="H101" s="15">
         <f t="shared" si="2"/>
-        <v>0.36666666667079995</v>
+        <v>0</v>
       </c>
       <c r="I101" s="14"/>
       <c r="J101" s="17">
@@ -36166,14 +36166,14 @@
       </c>
       <c r="E102" s="16">
         <f t="shared" si="1"/>
-        <v>0.56666666666246668</v>
+        <v>0.71111111110831116</v>
       </c>
       <c r="G102" s="17">
         <v>-0.15999999999937001</v>
       </c>
       <c r="H102" s="15">
         <f t="shared" si="2"/>
-        <v>0.43333333333753327</v>
+        <v>0</v>
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="17">
@@ -36205,14 +36205,14 @@
       </c>
       <c r="E103" s="16">
         <f t="shared" si="1"/>
-        <v>0.49999999999573336</v>
+        <v>0.66666666666382224</v>
       </c>
       <c r="G103" s="17">
         <v>-0.14999999999936001</v>
       </c>
       <c r="H103" s="15">
         <f t="shared" si="2"/>
-        <v>0.50000000000426659</v>
+        <v>0</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="17">
@@ -36244,14 +36244,14 @@
       </c>
       <c r="E104" s="16">
         <f t="shared" ref="E104:E167" si="6">IF(OR(D104&lt;=$B$8,D104&gt;=$E$8),0,IF(AND(D104&gt;=$C$8,D104&lt;=$D$8),1,IF(AND(D104&gt;=$B$8,D104&lt;=$C$8),$G$8*(D104-$B$8),IF(AND(D104&gt;=$D$8,D104&lt;=$E$8),$H$8*(D104-$E$8)))))</f>
-        <v>0.43333333332900004</v>
+        <v>0.62222222221933343</v>
       </c>
       <c r="G104" s="17">
         <v>-0.13999999999935001</v>
       </c>
       <c r="H104" s="15">
         <f t="shared" ref="H104:H167" si="7">IF(OR(G104&lt;=$B$9,G104&gt;=$E$9),0,IF(AND(G104&gt;=$C$9,G104&lt;=$D$9),1,IF(AND(G104&gt;=$B$9,G104&lt;=$C$9),$G$9*(G104-$B$9),IF(AND(G104&gt;=$D$9,G104&lt;=$E$9),$H$9*(G104-$E$9)))))</f>
-        <v>0.56666666667099996</v>
+        <v>0</v>
       </c>
       <c r="I104" s="14"/>
       <c r="J104" s="17">
@@ -36283,14 +36283,14 @@
       </c>
       <c r="E105" s="16">
         <f t="shared" si="6"/>
-        <v>0.36666666666226666</v>
+        <v>0.57777777777484451</v>
       </c>
       <c r="G105" s="17">
         <v>-0.12999999999934</v>
       </c>
       <c r="H105" s="15">
         <f t="shared" si="7"/>
-        <v>0.63333333333773323</v>
+        <v>0</v>
       </c>
       <c r="I105" s="14"/>
       <c r="J105" s="17">
@@ -36322,14 +36322,14 @@
       </c>
       <c r="E106" s="16">
         <f t="shared" si="6"/>
-        <v>0.29999999999553334</v>
+        <v>0.5333333333303556</v>
       </c>
       <c r="G106" s="17">
         <v>-0.11999999999933</v>
       </c>
       <c r="H106" s="15">
         <f t="shared" si="7"/>
-        <v>0.7000000000044666</v>
+        <v>0</v>
       </c>
       <c r="I106" s="14"/>
       <c r="J106" s="17">
@@ -36361,14 +36361,14 @@
       </c>
       <c r="E107" s="16">
         <f t="shared" si="6"/>
-        <v>0.23333333332880002</v>
+        <v>0.48888888888586668</v>
       </c>
       <c r="G107" s="17">
         <v>-0.10999999999932</v>
       </c>
       <c r="H107" s="15">
         <f t="shared" si="7"/>
-        <v>0.76666666667119998</v>
+        <v>0</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="17">
@@ -36400,14 +36400,14 @@
       </c>
       <c r="E108" s="16">
         <f t="shared" si="6"/>
-        <v>0.16666666666206734</v>
+        <v>0.44444444444137826</v>
       </c>
       <c r="G108" s="17">
         <v>-9.9999999999310099E-2</v>
       </c>
       <c r="H108" s="15">
         <f t="shared" si="7"/>
-        <v>0.83333333333793258</v>
+        <v>9.8558066469982858E-12</v>
       </c>
       <c r="I108" s="14"/>
       <c r="J108" s="17">
@@ -36439,14 +36439,14 @@
       </c>
       <c r="E109" s="16">
         <f t="shared" si="6"/>
-        <v>9.9999999995334002E-2</v>
+        <v>0.39999999999688934</v>
       </c>
       <c r="G109" s="17">
         <v>-8.9999999999300098E-2</v>
       </c>
       <c r="H109" s="15">
         <f t="shared" si="7"/>
-        <v>0.90000000000466585</v>
+        <v>0.14285714286714152</v>
       </c>
       <c r="I109" s="14"/>
       <c r="J109" s="17">
@@ -36478,14 +36478,14 @@
       </c>
       <c r="E110" s="16">
         <f t="shared" si="6"/>
-        <v>3.3333333328600667E-2</v>
+        <v>0.35555555555240043</v>
       </c>
       <c r="G110" s="17">
         <v>-7.9999999999290097E-2</v>
       </c>
       <c r="H110" s="15">
         <f t="shared" si="7"/>
-        <v>0.96666666667139922</v>
+        <v>0.28571428572442725</v>
       </c>
       <c r="I110" s="14"/>
       <c r="J110" s="17">
@@ -36517,14 +36517,14 @@
       </c>
       <c r="E111" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.31111111110791156</v>
       </c>
       <c r="G111" s="17">
         <v>-6.9999999999280096E-2</v>
       </c>
       <c r="H111" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.42857142858171293</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="17">
@@ -36556,14 +36556,14 @@
       </c>
       <c r="E112" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2666666666634227</v>
       </c>
       <c r="G112" s="17">
         <v>-5.9999999999270102E-2</v>
       </c>
       <c r="H112" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.57142857143899861</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="17">
@@ -36595,14 +36595,14 @@
       </c>
       <c r="E113" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.22222222221893378</v>
       </c>
       <c r="G113" s="17">
         <v>-4.9999999999260102E-2</v>
       </c>
       <c r="H113" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.71428571429628429</v>
       </c>
       <c r="I113" s="14"/>
       <c r="J113" s="17">
@@ -36634,14 +36634,14 @@
       </c>
       <c r="E114" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.1777777777744449</v>
       </c>
       <c r="G114" s="17">
         <v>-3.9999999999250101E-2</v>
       </c>
       <c r="H114" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.85714285715356997</v>
       </c>
       <c r="I114" s="14"/>
       <c r="J114" s="17">
@@ -36673,7 +36673,7 @@
       </c>
       <c r="E115" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.13333333332995601</v>
       </c>
       <c r="G115" s="17">
         <v>-2.99999999992401E-2</v>
@@ -36712,7 +36712,7 @@
       </c>
       <c r="E116" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.8888888885467116E-2</v>
       </c>
       <c r="G116" s="17">
         <v>-1.9999999999230099E-2</v>
@@ -36751,7 +36751,7 @@
       </c>
       <c r="E117" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.4444444440978136E-2</v>
       </c>
       <c r="G117" s="17">
         <v>-9.9999999992200807E-3</v>
@@ -36802,7 +36802,7 @@
       </c>
       <c r="K118" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7.8992368202079904E-12</v>
       </c>
       <c r="M118" s="17">
         <v>7.8992368202079898E-13</v>
@@ -36839,7 +36839,7 @@
       </c>
       <c r="K119" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.100000000007999</v>
       </c>
       <c r="M119" s="17">
         <v>1.00000000007999E-2</v>
@@ -36876,7 +36876,7 @@
       </c>
       <c r="K120" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.200000000008099</v>
       </c>
       <c r="M120" s="17">
         <v>2.0000000000809901E-2</v>
@@ -36906,14 +36906,14 @@
       </c>
       <c r="H121" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.99999999998828715</v>
       </c>
       <c r="J121" s="17">
         <v>3.0000000000819899E-2</v>
       </c>
       <c r="K121" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.30000000000819899</v>
       </c>
       <c r="M121" s="17">
         <v>3.0000000000819899E-2</v>
@@ -36943,14 +36943,14 @@
       </c>
       <c r="H122" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.85714285713100147</v>
       </c>
       <c r="J122" s="17">
         <v>4.0000000000829899E-2</v>
       </c>
       <c r="K122" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.40000000000829899</v>
       </c>
       <c r="M122" s="17">
         <v>4.0000000000829899E-2</v>
@@ -36980,14 +36980,14 @@
       </c>
       <c r="H123" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.71428571427371579</v>
       </c>
       <c r="J123" s="17">
         <v>5.00000000008399E-2</v>
       </c>
       <c r="K123" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.50000000000839906</v>
       </c>
       <c r="M123" s="17">
         <v>5.00000000008399E-2</v>
@@ -37017,14 +37017,14 @@
       </c>
       <c r="H124" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.57142857141643</v>
       </c>
       <c r="J124" s="17">
         <v>6.0000000000849901E-2</v>
       </c>
       <c r="K124" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.60000000000849907</v>
       </c>
       <c r="M124" s="17">
         <v>6.0000000000849901E-2</v>
@@ -37054,14 +37054,14 @@
       </c>
       <c r="H125" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.42857142855914432</v>
       </c>
       <c r="J125" s="17">
         <v>7.0000000000859902E-2</v>
       </c>
       <c r="K125" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.70000000000859908</v>
       </c>
       <c r="M125" s="17">
         <v>7.0000000000859902E-2</v>
@@ -37091,14 +37091,14 @@
       </c>
       <c r="H126" s="15">
         <f t="shared" si="7"/>
-        <v>0.96666666666086731</v>
+        <v>0.28571428570185858</v>
       </c>
       <c r="J126" s="17">
         <v>8.0000000000869903E-2</v>
       </c>
       <c r="K126" s="15">
         <f t="shared" si="8"/>
-        <v>3.3333333339132701E-2</v>
+        <v>0.80000000000869909</v>
       </c>
       <c r="M126" s="17">
         <v>8.0000000000869903E-2</v>
@@ -37128,14 +37128,14 @@
       </c>
       <c r="H127" s="15">
         <f t="shared" si="7"/>
-        <v>0.89999999999413394</v>
+        <v>0.14285714284457288</v>
       </c>
       <c r="J127" s="17">
         <v>9.0000000000879904E-2</v>
       </c>
       <c r="K127" s="15">
         <f t="shared" si="8"/>
-        <v>0.10000000000586604</v>
+        <v>0.90000000000879909</v>
       </c>
       <c r="M127" s="17">
         <v>9.0000000000879904E-2</v>
@@ -37165,14 +37165,14 @@
       </c>
       <c r="H128" s="15">
         <f t="shared" si="7"/>
-        <v>0.83333333332740001</v>
+        <v>0</v>
       </c>
       <c r="J128" s="17">
         <v>0.10000000000089</v>
       </c>
       <c r="K128" s="15">
         <f t="shared" si="8"/>
-        <v>0.16666666667260002</v>
+        <v>1</v>
       </c>
       <c r="M128" s="17">
         <v>0.10000000000089</v>
@@ -37202,14 +37202,14 @@
       </c>
       <c r="H129" s="15">
         <f t="shared" si="7"/>
-        <v>0.76666666666066663</v>
+        <v>0</v>
       </c>
       <c r="J129" s="17">
         <v>0.1100000000009</v>
       </c>
       <c r="K129" s="15">
         <f t="shared" si="8"/>
-        <v>0.23333333333933334</v>
+        <v>1</v>
       </c>
       <c r="M129" s="17">
         <v>0.1100000000009</v>
@@ -37239,14 +37239,14 @@
       </c>
       <c r="H130" s="15">
         <f t="shared" si="7"/>
-        <v>0.69999999999393325</v>
+        <v>0</v>
       </c>
       <c r="J130" s="17">
         <v>0.12000000000091</v>
       </c>
       <c r="K130" s="15">
         <f t="shared" si="8"/>
-        <v>0.30000000000606669</v>
+        <v>1</v>
       </c>
       <c r="M130" s="17">
         <v>0.12000000000091</v>
@@ -37276,14 +37276,14 @@
       </c>
       <c r="H131" s="15">
         <f t="shared" si="7"/>
-        <v>0.63333333332719999</v>
+        <v>0</v>
       </c>
       <c r="J131" s="17">
         <v>0.13000000000091999</v>
       </c>
       <c r="K131" s="15">
         <f t="shared" si="8"/>
-        <v>0.3666666666727999</v>
+        <v>1</v>
       </c>
       <c r="M131" s="17">
         <v>0.13000000000091999</v>
@@ -37313,14 +37313,14 @@
       </c>
       <c r="H132" s="15">
         <f t="shared" si="7"/>
-        <v>0.56666666666046672</v>
+        <v>0</v>
       </c>
       <c r="J132" s="17">
         <v>0.14000000000092999</v>
       </c>
       <c r="K132" s="15">
         <f t="shared" si="8"/>
-        <v>0.43333333333953328</v>
+        <v>1</v>
       </c>
       <c r="M132" s="17">
         <v>0.14000000000092999</v>
@@ -37350,14 +37350,14 @@
       </c>
       <c r="H133" s="15">
         <f t="shared" si="7"/>
-        <v>0.4999999999937334</v>
+        <v>0</v>
       </c>
       <c r="J133" s="17">
         <v>0.15000000000093999</v>
       </c>
       <c r="K133" s="15">
         <f t="shared" si="8"/>
-        <v>0.50000000000626654</v>
+        <v>1</v>
       </c>
       <c r="M133" s="17">
         <v>0.15000000000093999</v>
@@ -37387,14 +37387,14 @@
       </c>
       <c r="H134" s="15">
         <f t="shared" si="7"/>
-        <v>0.43333333332700003</v>
+        <v>0</v>
       </c>
       <c r="J134" s="17">
         <v>0.16000000000094999</v>
       </c>
       <c r="K134" s="15">
         <f t="shared" si="8"/>
-        <v>0.56666666667299992</v>
+        <v>1</v>
       </c>
       <c r="M134" s="17">
         <v>0.16000000000094999</v>
@@ -37424,14 +37424,14 @@
       </c>
       <c r="H135" s="15">
         <f t="shared" si="7"/>
-        <v>0.3666666666602667</v>
+        <v>0</v>
       </c>
       <c r="J135" s="17">
         <v>0.17000000000095999</v>
       </c>
       <c r="K135" s="15">
         <f t="shared" si="8"/>
-        <v>0.6333333333397333</v>
+        <v>1</v>
       </c>
       <c r="M135" s="17">
         <v>0.17000000000095999</v>
@@ -37461,14 +37461,14 @@
       </c>
       <c r="H136" s="15">
         <f t="shared" si="7"/>
-        <v>0.29999999999353338</v>
+        <v>0</v>
       </c>
       <c r="J136" s="17">
         <v>0.18000000000097</v>
       </c>
       <c r="K136" s="15">
         <f t="shared" si="8"/>
-        <v>0.70000000000646656</v>
+        <v>1</v>
       </c>
       <c r="M136" s="17">
         <v>0.18000000000097</v>
@@ -37498,14 +37498,14 @@
       </c>
       <c r="H137" s="15">
         <f t="shared" si="7"/>
-        <v>0.23333333332680004</v>
+        <v>0</v>
       </c>
       <c r="J137" s="17">
         <v>0.19000000000098</v>
       </c>
       <c r="K137" s="15">
         <f t="shared" si="8"/>
-        <v>0.76666666667319994</v>
+        <v>1</v>
       </c>
       <c r="M137" s="17">
         <v>0.19000000000098</v>
@@ -37535,14 +37535,14 @@
       </c>
       <c r="H138" s="15">
         <f t="shared" si="7"/>
-        <v>0.16666666666006671</v>
+        <v>0</v>
       </c>
       <c r="J138" s="17">
         <v>0.20000000000099</v>
       </c>
       <c r="K138" s="15">
         <f t="shared" si="8"/>
-        <v>0.8333333333399332</v>
+        <v>1</v>
       </c>
       <c r="M138" s="17">
         <v>0.20000000000099</v>
@@ -37572,14 +37572,14 @@
       </c>
       <c r="H139" s="15">
         <f t="shared" si="7"/>
-        <v>9.999999999333338E-2</v>
+        <v>0</v>
       </c>
       <c r="J139" s="17">
         <v>0.210000000001</v>
       </c>
       <c r="K139" s="15">
         <f t="shared" si="8"/>
-        <v>0.90000000000666647</v>
+        <v>1</v>
       </c>
       <c r="M139" s="17">
         <v>0.210000000001</v>
@@ -37609,14 +37609,14 @@
       </c>
       <c r="H140" s="15">
         <f t="shared" si="7"/>
-        <v>3.3333333326600045E-2</v>
+        <v>0</v>
       </c>
       <c r="J140" s="17">
         <v>0.22000000000101</v>
       </c>
       <c r="K140" s="15">
         <f t="shared" si="8"/>
-        <v>0.96666666667339984</v>
+        <v>1</v>
       </c>
       <c r="M140" s="17">
         <v>0.22000000000101</v>
@@ -37912,7 +37912,7 @@
       </c>
       <c r="K148" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.99999999999515543</v>
       </c>
       <c r="M148" s="17">
         <v>0.30000000000109001</v>
@@ -37949,7 +37949,7 @@
       </c>
       <c r="K149" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.95555555555066662</v>
       </c>
       <c r="M149" s="17">
         <v>0.31000000000110001</v>
@@ -37987,7 +37987,7 @@
       </c>
       <c r="K150" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.91111111110617771</v>
       </c>
       <c r="L150" s="14"/>
       <c r="M150" s="17">
@@ -38026,7 +38026,7 @@
       </c>
       <c r="K151" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.86666666666168879</v>
       </c>
       <c r="L151" s="14"/>
       <c r="M151" s="17">
@@ -38065,7 +38065,7 @@
       </c>
       <c r="K152" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.82222222221719998</v>
       </c>
       <c r="L152" s="14"/>
       <c r="M152" s="17">
@@ -38104,7 +38104,7 @@
       </c>
       <c r="K153" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.77777777777271107</v>
       </c>
       <c r="L153" s="14"/>
       <c r="M153" s="17">
@@ -38143,7 +38143,7 @@
       </c>
       <c r="K154" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.73333333332822215</v>
       </c>
       <c r="L154" s="14"/>
       <c r="M154" s="17">
@@ -38182,7 +38182,7 @@
       </c>
       <c r="K155" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.68888888888373323</v>
       </c>
       <c r="L155" s="14"/>
       <c r="M155" s="17">
@@ -38221,7 +38221,7 @@
       </c>
       <c r="K156" s="15">
         <f t="shared" si="8"/>
-        <v>0.96666666665886669</v>
+        <v>0.64444444443924442</v>
       </c>
       <c r="L156" s="14"/>
       <c r="M156" s="17">
@@ -38260,7 +38260,7 @@
       </c>
       <c r="K157" s="15">
         <f t="shared" si="8"/>
-        <v>0.89999999999213331</v>
+        <v>0.59999999999475551</v>
       </c>
       <c r="L157" s="14"/>
       <c r="M157" s="17">
@@ -38299,7 +38299,7 @@
       </c>
       <c r="K158" s="15">
         <f t="shared" si="8"/>
-        <v>0.83333333332539994</v>
+        <v>0.55555555555026659</v>
       </c>
       <c r="L158" s="14"/>
       <c r="M158" s="17">
@@ -38338,7 +38338,7 @@
       </c>
       <c r="K159" s="15">
         <f t="shared" si="8"/>
-        <v>0.76666666665866667</v>
+        <v>0.51111111110577778</v>
       </c>
       <c r="L159" s="14"/>
       <c r="M159" s="17">
@@ -38377,7 +38377,7 @@
       </c>
       <c r="K160" s="15">
         <f t="shared" si="8"/>
-        <v>0.6999999999919333</v>
+        <v>0.46666666666128886</v>
       </c>
       <c r="L160" s="14"/>
       <c r="M160" s="17">
@@ -38416,7 +38416,7 @@
       </c>
       <c r="K161" s="15">
         <f t="shared" si="8"/>
-        <v>0.63333333332519992</v>
+        <v>0.42222222221679995</v>
       </c>
       <c r="L161" s="14"/>
       <c r="M161" s="17">
@@ -38455,7 +38455,7 @@
       </c>
       <c r="K162" s="15">
         <f t="shared" si="8"/>
-        <v>0.56666666665846666</v>
+        <v>0.37777777777231109</v>
       </c>
       <c r="L162" s="14"/>
       <c r="M162" s="17">
@@ -38494,7 +38494,7 @@
       </c>
       <c r="K163" s="15">
         <f t="shared" si="8"/>
-        <v>0.49999999999173333</v>
+        <v>0.33333333332782217</v>
       </c>
       <c r="L163" s="14"/>
       <c r="M163" s="17">
@@ -38533,7 +38533,7 @@
       </c>
       <c r="K164" s="15">
         <f t="shared" si="8"/>
-        <v>0.43333333332499996</v>
+        <v>0.28888888888333331</v>
       </c>
       <c r="L164" s="14"/>
       <c r="M164" s="17">
@@ -38572,7 +38572,7 @@
       </c>
       <c r="K165" s="15">
         <f t="shared" si="8"/>
-        <v>0.36666666665826664</v>
+        <v>0.24444444443884442</v>
       </c>
       <c r="L165" s="14"/>
       <c r="M165" s="17">
@@ -38611,7 +38611,7 @@
       </c>
       <c r="K166" s="15">
         <f t="shared" si="8"/>
-        <v>0.29999999999153332</v>
+        <v>0.19999999999435553</v>
       </c>
       <c r="L166" s="14"/>
       <c r="M166" s="17">
@@ -38650,7 +38650,7 @@
       </c>
       <c r="K167" s="15">
         <f t="shared" si="8"/>
-        <v>0.23333333332479997</v>
+        <v>0.15555555554986664</v>
       </c>
       <c r="L167" s="14"/>
       <c r="M167" s="17">
@@ -38689,7 +38689,7 @@
       </c>
       <c r="K168" s="15">
         <f t="shared" ref="K168:K198" si="13">IF(OR(J168&lt;=$B$10,J168&gt;=$E$10),0,IF(AND(J168&gt;=$C$10,J168&lt;=$D$10),1,IF(AND(J168&gt;=$B$10,J168&lt;=$C$10),$G$10*(J168-$B$10),IF(AND(J168&gt;=$D$10,J168&lt;=$E$10),$H$10*(J168-$E$10)))))</f>
-        <v>0.16666666665806701</v>
+        <v>0.111111111105378</v>
       </c>
       <c r="L168" s="14"/>
       <c r="M168" s="17">
@@ -38728,7 +38728,7 @@
       </c>
       <c r="K169" s="15">
         <f t="shared" si="13"/>
-        <v>9.9999999991333674E-2</v>
+        <v>6.6666666660889121E-2</v>
       </c>
       <c r="L169" s="14"/>
       <c r="M169" s="17">
@@ -38767,7 +38767,7 @@
       </c>
       <c r="K170" s="15">
         <f t="shared" si="13"/>
-        <v>3.3333333324600346E-2</v>
+        <v>2.2222222216400227E-2</v>
       </c>
       <c r="L170" s="14"/>
       <c r="M170" s="17">

--- a/Fuzzy_Sets_Viewer.xlsx
+++ b/Fuzzy_Sets_Viewer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\AI -  Assn2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F304074D-7DEA-46E2-9624-7735E0F50167}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0DB8D5-41E4-486B-A55E-D7BB24FA81E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10248" yWindow="1140" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="3" r:id="rId1"/>
@@ -10367,85 +10367,85 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.96666666666486667</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.89999999999813329</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.83333333333140003</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.76666666666466665</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.69999999999793328</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.63333333333120001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.56666666666446663</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.49999999999773331</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.43333333333099999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.36666666666426667</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.29999999999753335</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2333333333308</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.16666666666406665</c:v>
+                  <c:v>0.99999999999739997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.9999999997333319E-2</c:v>
+                  <c:v>0.93333333333066659</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3333333330599992E-2</c:v>
+                  <c:v>0.86666666666393322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.79999999999719995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.73333333333046657</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.6666666666637332</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.59999999999699993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.53333333333026656</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.46666666666353324</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.39999999999679992</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333006659</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.26666666666333327</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>0.19999999999659993</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.13333333332986658</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>6.6666666663133256E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -11606,88 +11606,88 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>6.9333427887841018E-12</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>6.6666666673666677E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>0.13333333334040001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>0.20000000000713333</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>0.26666666667386668</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>0.3333333333406</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>0.40000000000733332</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>0.4666666666740667</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>0.53333333334080002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>0.6000000000075334</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666667426666</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>0.73333333334100004</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>0.8000000000077333</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.333333334113342E-2</c:v>
+                  <c:v>0.86666666667446668</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.10000000000786675</c:v>
+                  <c:v>0.93333333334120006</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.16666666667460009</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.23333333334133341</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.30000000000806676</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.36666666667480008</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.4333333333415334</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.50000000000826672</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.5666666666750001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.63333333334173336</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.70000000000846674</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.76666666667520011</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.83333333334193305</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.90000000000866642</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.96666666667539969</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>1</c:v>
@@ -12383,85 +12383,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.33333333351334E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10000000000186673</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.16666666666860006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2333333333353334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.30000000000206672</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.36666666666880005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.43333333333553342</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.50000000000226674</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.56666666666900012</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.63333333333573338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.70000000000246676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.76666666666920003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.8333333333359334</c:v>
+                  <c:v>2.6001423236721162E-12</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.90000000000266678</c:v>
+                  <c:v>6.6666666669333477E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.96666666666940004</c:v>
+                  <c:v>0.13333333333606681</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>0.20000000000280013</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>0.26666666666953348</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>0.3333333333362668</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>0.40000000000300012</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>0.4666666666697335</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>0.53333333333646682</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>0.6000000000032002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666993346</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>0.73333333333666684</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>0.8000000000034001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>0.86666666667013348</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>0.93333333333686685</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>1</c:v>
@@ -12473,70 +12473,70 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.97777777777524455</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.93333333333075563</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.88888888888626671</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.84444444444177791</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.79999999999728899</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.75555555555280007</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.71111111110831116</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.66666666666382224</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.62222222221933343</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.57777777777484451</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5333333333303556</c:v>
+                  <c:v>0.9999999999944168</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.48888888888586668</c:v>
+                  <c:v>0.91666666666100005</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.44444444444137826</c:v>
+                  <c:v>0.83333333332758419</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.39999999999688934</c:v>
+                  <c:v>0.74999999999416755</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.35555555555240043</c:v>
+                  <c:v>0.66666666666075081</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.31111111110791156</c:v>
+                  <c:v>0.58333333332733417</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.2666666666634227</c:v>
+                  <c:v>0.49999999999391753</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.22222222221893378</c:v>
+                  <c:v>0.4166666666605009</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1777777777744449</c:v>
+                  <c:v>0.3333333333270842</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.13333333332995601</c:v>
+                  <c:v>0.24999999999366751</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.8888888885467116E-2</c:v>
+                  <c:v>0.16666666666025085</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.4444444440978136E-2</c:v>
+                  <c:v>8.3333333326834014E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
@@ -13511,31 +13511,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>9.5713119969380911E-12</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714286685705</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.8558066469982858E-12</c:v>
+                  <c:v>0.28571428572414137</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.14285714286714152</c:v>
+                  <c:v>0.42857142858142711</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.28571428572442725</c:v>
+                  <c:v>0.57142857143871284</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.42857142858171293</c:v>
+                  <c:v>0.71428571429599863</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.57142857143899861</c:v>
+                  <c:v>0.8571428571532842</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.71428571429628429</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.85714285715356997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1</c:v>
@@ -13556,31 +13556,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.99999999998828715</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.85714285713100147</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.71428571427371579</c:v>
+                  <c:v>0.99999999998800138</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.57142857141643</c:v>
+                  <c:v>0.8571428571307157</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.42857142855914432</c:v>
+                  <c:v>0.71428571427342991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.28571428570185858</c:v>
+                  <c:v>0.57142857141614423</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.14285714284457288</c:v>
+                  <c:v>0.42857142855885849</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>0.28571428570157137</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714284428561</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>0</c:v>
@@ -14555,40 +14555,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.8992368202079904E-12</c:v>
+                  <c:v>6.5826973501733253E-12</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.100000000007999</c:v>
+                  <c:v>8.3333333339999177E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.200000000008099</c:v>
+                  <c:v>0.16666666667341584</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.30000000000819899</c:v>
+                  <c:v>0.25000000000683248</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.40000000000829899</c:v>
+                  <c:v>0.33333333334024917</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.50000000000839906</c:v>
+                  <c:v>0.41666666667366586</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.60000000000849907</c:v>
+                  <c:v>0.50000000000708256</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.70000000000859908</c:v>
+                  <c:v>0.58333333334049919</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.80000000000869909</c:v>
+                  <c:v>0.66666666667391594</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.90000000000879909</c:v>
+                  <c:v>0.75000000000733258</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>0.8333333333407501</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1</c:v>
+                  <c:v>0.91666666667416674</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1</c:v>
@@ -14630,88 +14630,88 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999306677</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1</c:v>
+                  <c:v>0.93333333332633339</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1</c:v>
+                  <c:v>0.86666666665960002</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1</c:v>
+                  <c:v>0.79999999999286675</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1</c:v>
+                  <c:v>0.73333333332613337</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.99999999999515543</c:v>
+                  <c:v>0.6666666666594</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.95555555555066662</c:v>
+                  <c:v>0.59999999999266673</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.91111111110617771</c:v>
+                  <c:v>0.53333333332593336</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.86666666666168879</c:v>
+                  <c:v>0.46666666665920004</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.82222222221719998</c:v>
+                  <c:v>0.39999999999246671</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.77777777777271107</c:v>
+                  <c:v>0.33333333332573339</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.73333333332822215</c:v>
+                  <c:v>0.26666666665900007</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.68888888888373323</c:v>
+                  <c:v>0.19999999999226672</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.64444444443924442</c:v>
+                  <c:v>0.13333333332553338</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.59999999999475551</c:v>
+                  <c:v>6.6666666658800056E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.55555555555026659</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.51111111110577778</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.46666666666128886</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.42222222221679995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.37777777777231109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.33333333332782217</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.28888888888333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.24444444443884442</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.19999999999435553</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.15555555554986664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.111111111105378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6.6666666660889121E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.2222222216400227E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>0</c:v>
@@ -15553,61 +15553,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.8999999999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.79999999999999971</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.69999999999999962</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.39999999999999986</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29999999999999977</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.19999999999999965</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.9999999999999548E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.79999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.69999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.59999999999999976</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.49999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.40000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.30000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.20000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.10000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -16801,61 +16801,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>0.10000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>0.20000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>0.30000000000002014</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>0.40000000000002017</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>0.50000000000001965</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>0.60000000000001974</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>0.70000000000001983</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>0.80000000000001981</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>0.9000000000000199</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.9984014443252821E-14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.10000000000001953</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.20000000000001963</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.30000000000001975</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.40000000000001984</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.50000000000001998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.60000000000002007</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.70000000000002016</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.8000000000000197</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.90000000000001978</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>1</c:v>
@@ -17569,61 +17569,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1000000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20000000000000021</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.30000000000000032</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.39999999999999986</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.70000000000000018</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.80000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.90000000000000036</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>0.10000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>0.20000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>0.30000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>0.40000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>0.50000000000000022</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>0.59999999999999976</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>0.69999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>0.79999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1</c:v>
@@ -17659,61 +17659,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>0.89999999999999991</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.79999999999999982</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="72">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0.70000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.49999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.40000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="75">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.1999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9.999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
@@ -18667,46 +18667,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.10000000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>0.20000000000000018</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="72">
                   <c:v>0.40000000000000008</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.50000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="73">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.70000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>0.80000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.90000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1</c:v>
@@ -18742,46 +18742,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1</c:v>
+                  <c:v>0.80000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1</c:v>
+                  <c:v>0.40000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1</c:v>
+                  <c:v>0.20000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.90000000000000013</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.80000000000000016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.50000000000000022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.40000000000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.20000000000000018</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.10000000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -19735,61 +19735,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>0.19999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.999999999999995E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.1999999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.40000000000000008</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.49999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>1</c:v>
@@ -19825,61 +19825,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1</c:v>
+                  <c:v>0.79999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1</c:v>
+                  <c:v>0.69999999999997986</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1</c:v>
+                  <c:v>0.59999999999997977</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1</c:v>
+                  <c:v>0.49999999999998029</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1</c:v>
+                  <c:v>0.3999999999999802</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1</c:v>
+                  <c:v>0.29999999999998017</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1</c:v>
+                  <c:v>0.19999999999998011</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1</c:v>
+                  <c:v>9.9999999999980063E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.99999999999998002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.89999999999998037</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.79999999999998028</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.69999999999998019</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.5999999999999801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.49999999999998002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.39999999999997987</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.29999999999997978</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.19999999999998022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>9.9999999999980119E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>0</c:v>
@@ -25808,7 +25808,7 @@
   <dimension ref="A1:N225"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33388,8 +33388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80852986-C994-4AE5-B43E-409E55245785}">
   <dimension ref="A1:N225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33423,14 +33423,6 @@
       <c r="B3" s="24"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4">
-        <v>-4.5</v>
-      </c>
-      <c r="F4">
-        <v>4.5</v>
-      </c>
-    </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
@@ -33460,10 +33452,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.52500000000000002</v>
+        <v>-0.4</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.375</v>
+        <v>-0.25</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -33487,13 +33479,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.52500000000000002</v>
+        <v>-0.4</v>
       </c>
       <c r="C8" s="7">
-        <v>-0.375</v>
+        <v>-0.25</v>
       </c>
       <c r="D8" s="7">
-        <v>-0.22500000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -33507,7 +33499,7 @@
       </c>
       <c r="H8" s="1">
         <f>1/(D8-E8)</f>
-        <v>-4.4444444444444446</v>
+        <v>-8.3333333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -33515,27 +33507,27 @@
         <v>17</v>
       </c>
       <c r="B9" s="7">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="C9" s="7">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="D9" s="11">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="11">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="1">
         <f>1/(C9-B9)</f>
-        <v>14.285714285714285</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="H9" s="1">
         <f>1/(D9-E9)</f>
-        <v>-14.285714285714285</v>
+        <v>-14.285714285714286</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -33546,24 +33538,24 @@
         <v>0</v>
       </c>
       <c r="C10" s="7">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D10" s="11">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="E10" s="11">
-        <v>0.52500000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="1">
         <f>1/(C10-B10)</f>
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="H10" s="1">
         <f>1/(D10-E10)</f>
-        <v>-4.4444444444444438</v>
+        <v>-6.6666666666666661</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -33571,10 +33563,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="11">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="11">
-        <v>0.52500000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -34755,14 +34747,14 @@
       </c>
       <c r="B66" s="10">
         <f t="shared" si="0"/>
-        <v>0.96666666666486667</v>
+        <v>1</v>
       </c>
       <c r="D66" s="17">
         <v>-0.51999999999973001</v>
       </c>
       <c r="E66" s="16">
         <f t="shared" si="1"/>
-        <v>3.33333333351334E-2</v>
+        <v>0</v>
       </c>
       <c r="G66" s="17">
         <v>-0.51999999999973001</v>
@@ -34794,14 +34786,14 @@
       </c>
       <c r="B67" s="10">
         <f t="shared" si="0"/>
-        <v>0.89999999999813329</v>
+        <v>1</v>
       </c>
       <c r="D67" s="17">
         <v>-0.50999999999972001</v>
       </c>
       <c r="E67" s="16">
         <f t="shared" si="1"/>
-        <v>0.10000000000186673</v>
+        <v>0</v>
       </c>
       <c r="G67" s="17">
         <v>-0.50999999999972001</v>
@@ -34833,14 +34825,14 @@
       </c>
       <c r="B68" s="10">
         <f t="shared" si="0"/>
-        <v>0.83333333333140003</v>
+        <v>1</v>
       </c>
       <c r="D68" s="17">
         <v>-0.49999999999971001</v>
       </c>
       <c r="E68" s="16">
         <f t="shared" si="1"/>
-        <v>0.16666666666860006</v>
+        <v>0</v>
       </c>
       <c r="G68" s="17">
         <v>-0.49999999999971001</v>
@@ -34872,14 +34864,14 @@
       </c>
       <c r="B69" s="10">
         <f t="shared" si="0"/>
-        <v>0.76666666666466665</v>
+        <v>1</v>
       </c>
       <c r="D69" s="17">
         <v>-0.48999999999970001</v>
       </c>
       <c r="E69" s="16">
         <f t="shared" si="1"/>
-        <v>0.2333333333353334</v>
+        <v>0</v>
       </c>
       <c r="G69" s="17">
         <v>-0.48999999999970001</v>
@@ -34911,14 +34903,14 @@
       </c>
       <c r="B70" s="10">
         <f t="shared" si="0"/>
-        <v>0.69999999999793328</v>
+        <v>1</v>
       </c>
       <c r="D70" s="17">
         <v>-0.47999999999969001</v>
       </c>
       <c r="E70" s="16">
         <f t="shared" si="1"/>
-        <v>0.30000000000206672</v>
+        <v>0</v>
       </c>
       <c r="G70" s="17">
         <v>-0.47999999999969001</v>
@@ -34950,14 +34942,14 @@
       </c>
       <c r="B71" s="10">
         <f t="shared" si="0"/>
-        <v>0.63333333333120001</v>
+        <v>1</v>
       </c>
       <c r="D71" s="17">
         <v>-0.46999999999968001</v>
       </c>
       <c r="E71" s="16">
         <f t="shared" si="1"/>
-        <v>0.36666666666880005</v>
+        <v>0</v>
       </c>
       <c r="G71" s="17">
         <v>-0.46999999999968001</v>
@@ -34989,14 +34981,14 @@
       </c>
       <c r="B72" s="10">
         <f t="shared" si="0"/>
-        <v>0.56666666666446663</v>
+        <v>1</v>
       </c>
       <c r="D72" s="17">
         <v>-0.45999999999967001</v>
       </c>
       <c r="E72" s="16">
         <f t="shared" si="1"/>
-        <v>0.43333333333553342</v>
+        <v>0</v>
       </c>
       <c r="G72" s="17">
         <v>-0.45999999999967001</v>
@@ -35028,14 +35020,14 @@
       </c>
       <c r="B73" s="10">
         <f t="shared" si="0"/>
-        <v>0.49999999999773331</v>
+        <v>1</v>
       </c>
       <c r="D73" s="17">
         <v>-0.44999999999966001</v>
       </c>
       <c r="E73" s="16">
         <f t="shared" si="1"/>
-        <v>0.50000000000226674</v>
+        <v>0</v>
       </c>
       <c r="G73" s="17">
         <v>-0.44999999999966001</v>
@@ -35067,14 +35059,14 @@
       </c>
       <c r="B74" s="10">
         <f t="shared" si="0"/>
-        <v>0.43333333333099999</v>
+        <v>1</v>
       </c>
       <c r="D74" s="17">
         <v>-0.43999999999965</v>
       </c>
       <c r="E74" s="16">
         <f t="shared" si="1"/>
-        <v>0.56666666666900012</v>
+        <v>0</v>
       </c>
       <c r="G74" s="17">
         <v>-0.43999999999965</v>
@@ -35106,14 +35098,14 @@
       </c>
       <c r="B75" s="10">
         <f t="shared" si="0"/>
-        <v>0.36666666666426667</v>
+        <v>1</v>
       </c>
       <c r="D75" s="17">
         <v>-0.42999999999964</v>
       </c>
       <c r="E75" s="16">
         <f t="shared" si="1"/>
-        <v>0.63333333333573338</v>
+        <v>0</v>
       </c>
       <c r="G75" s="17">
         <v>-0.42999999999964</v>
@@ -35145,14 +35137,14 @@
       </c>
       <c r="B76" s="10">
         <f t="shared" si="0"/>
-        <v>0.29999999999753335</v>
+        <v>1</v>
       </c>
       <c r="D76" s="17">
         <v>-0.41999999999963</v>
       </c>
       <c r="E76" s="16">
         <f t="shared" si="1"/>
-        <v>0.70000000000246676</v>
+        <v>0</v>
       </c>
       <c r="G76" s="17">
         <v>-0.41999999999963</v>
@@ -35184,14 +35176,14 @@
       </c>
       <c r="B77" s="10">
         <f t="shared" si="0"/>
-        <v>0.2333333333308</v>
+        <v>1</v>
       </c>
       <c r="D77" s="17">
         <v>-0.40999999999962</v>
       </c>
       <c r="E77" s="16">
         <f t="shared" si="1"/>
-        <v>0.76666666666920003</v>
+        <v>0</v>
       </c>
       <c r="G77" s="17">
         <v>-0.40999999999962</v>
@@ -35223,14 +35215,14 @@
       </c>
       <c r="B78" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666406665</v>
+        <v>0.99999999999739997</v>
       </c>
       <c r="D78" s="17">
         <v>-0.39999999999961</v>
       </c>
       <c r="E78" s="16">
         <f t="shared" si="1"/>
-        <v>0.8333333333359334</v>
+        <v>2.6001423236721162E-12</v>
       </c>
       <c r="G78" s="17">
         <v>-0.39999999999961</v>
@@ -35262,14 +35254,14 @@
       </c>
       <c r="B79" s="10">
         <f t="shared" si="0"/>
-        <v>9.9999999997333319E-2</v>
+        <v>0.93333333333066659</v>
       </c>
       <c r="D79" s="17">
         <v>-0.3899999999996</v>
       </c>
       <c r="E79" s="16">
         <f t="shared" si="1"/>
-        <v>0.90000000000266678</v>
+        <v>6.6666666669333477E-2</v>
       </c>
       <c r="G79" s="17">
         <v>-0.3899999999996</v>
@@ -35301,14 +35293,14 @@
       </c>
       <c r="B80" s="10">
         <f t="shared" si="0"/>
-        <v>3.3333333330599992E-2</v>
+        <v>0.86666666666393322</v>
       </c>
       <c r="D80" s="17">
         <v>-0.37999999999959</v>
       </c>
       <c r="E80" s="16">
         <f t="shared" si="1"/>
-        <v>0.96666666666940004</v>
+        <v>0.13333333333606681</v>
       </c>
       <c r="G80" s="17">
         <v>-0.37999999999959</v>
@@ -35340,14 +35332,14 @@
       </c>
       <c r="B81" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.79999999999719995</v>
       </c>
       <c r="D81" s="17">
         <v>-0.36999999999958</v>
       </c>
       <c r="E81" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.20000000000280013</v>
       </c>
       <c r="G81" s="17">
         <v>-0.36999999999958</v>
@@ -35379,14 +35371,14 @@
       </c>
       <c r="B82" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.73333333333046657</v>
       </c>
       <c r="D82" s="17">
         <v>-0.35999999999957</v>
       </c>
       <c r="E82" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.26666666666953348</v>
       </c>
       <c r="G82" s="17">
         <v>-0.35999999999957</v>
@@ -35418,14 +35410,14 @@
       </c>
       <c r="B83" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6666666666637332</v>
       </c>
       <c r="D83" s="17">
         <v>-0.34999999999956</v>
       </c>
       <c r="E83" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.3333333333362668</v>
       </c>
       <c r="G83" s="17">
         <v>-0.34999999999956</v>
@@ -35457,14 +35449,14 @@
       </c>
       <c r="B84" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.59999999999699993</v>
       </c>
       <c r="D84" s="17">
         <v>-0.33999999999955</v>
       </c>
       <c r="E84" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.40000000000300012</v>
       </c>
       <c r="G84" s="17">
         <v>-0.33999999999955</v>
@@ -35496,14 +35488,14 @@
       </c>
       <c r="B85" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.53333333333026656</v>
       </c>
       <c r="D85" s="17">
         <v>-0.32999999999953999</v>
       </c>
       <c r="E85" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.4666666666697335</v>
       </c>
       <c r="G85" s="17">
         <v>-0.32999999999953999</v>
@@ -35535,14 +35527,14 @@
       </c>
       <c r="B86" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.46666666666353324</v>
       </c>
       <c r="D86" s="17">
         <v>-0.31999999999952999</v>
       </c>
       <c r="E86" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.53333333333646682</v>
       </c>
       <c r="G86" s="17">
         <v>-0.31999999999952999</v>
@@ -35574,14 +35566,14 @@
       </c>
       <c r="B87" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.39999999999679992</v>
       </c>
       <c r="D87" s="17">
         <v>-0.30999999999951999</v>
       </c>
       <c r="E87" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.6000000000032002</v>
       </c>
       <c r="G87" s="17">
         <v>-0.30999999999951999</v>
@@ -35613,14 +35605,14 @@
       </c>
       <c r="B88" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333006659</v>
       </c>
       <c r="D88" s="17">
         <v>-0.29999999999950999</v>
       </c>
       <c r="E88" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.66666666666993346</v>
       </c>
       <c r="G88" s="17">
         <v>-0.29999999999950999</v>
@@ -35652,14 +35644,14 @@
       </c>
       <c r="B89" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26666666666333327</v>
       </c>
       <c r="D89" s="17">
         <v>-0.28999999999949999</v>
       </c>
       <c r="E89" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.73333333333666684</v>
       </c>
       <c r="G89" s="17">
         <v>-0.28999999999949999</v>
@@ -35691,14 +35683,14 @@
       </c>
       <c r="B90" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19999999999659993</v>
       </c>
       <c r="D90" s="17">
         <v>-0.27999999999948999</v>
       </c>
       <c r="E90" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8000000000034001</v>
       </c>
       <c r="G90" s="17">
         <v>-0.27999999999948999</v>
@@ -35730,14 +35722,14 @@
       </c>
       <c r="B91" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13333333332986658</v>
       </c>
       <c r="D91" s="17">
         <v>-0.26999999999947999</v>
       </c>
       <c r="E91" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.86666666667013348</v>
       </c>
       <c r="G91" s="17">
         <v>-0.26999999999947999</v>
@@ -35769,14 +35761,14 @@
       </c>
       <c r="B92" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6666666663133256E-2</v>
       </c>
       <c r="D92" s="17">
         <v>-0.25999999999946999</v>
       </c>
       <c r="E92" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.93333333333686685</v>
       </c>
       <c r="G92" s="17">
         <v>-0.25999999999946999</v>
@@ -35932,7 +35924,7 @@
       </c>
       <c r="E96" s="16">
         <f t="shared" si="1"/>
-        <v>0.97777777777524455</v>
+        <v>1</v>
       </c>
       <c r="G96" s="17">
         <v>-0.21999999999943001</v>
@@ -35971,7 +35963,7 @@
       </c>
       <c r="E97" s="16">
         <f t="shared" si="1"/>
-        <v>0.93333333333075563</v>
+        <v>1</v>
       </c>
       <c r="G97" s="17">
         <v>-0.20999999999942001</v>
@@ -36010,7 +36002,7 @@
       </c>
       <c r="E98" s="16">
         <f t="shared" si="1"/>
-        <v>0.88888888888626671</v>
+        <v>1</v>
       </c>
       <c r="G98" s="17">
         <v>-0.19999999999941001</v>
@@ -36049,7 +36041,7 @@
       </c>
       <c r="E99" s="16">
         <f t="shared" si="1"/>
-        <v>0.84444444444177791</v>
+        <v>1</v>
       </c>
       <c r="G99" s="17">
         <v>-0.18999999999940001</v>
@@ -36088,7 +36080,7 @@
       </c>
       <c r="E100" s="16">
         <f t="shared" si="1"/>
-        <v>0.79999999999728899</v>
+        <v>1</v>
       </c>
       <c r="G100" s="17">
         <v>-0.17999999999939001</v>
@@ -36127,7 +36119,7 @@
       </c>
       <c r="E101" s="16">
         <f t="shared" si="1"/>
-        <v>0.75555555555280007</v>
+        <v>1</v>
       </c>
       <c r="G101" s="17">
         <v>-0.16999999999938001</v>
@@ -36166,7 +36158,7 @@
       </c>
       <c r="E102" s="16">
         <f t="shared" si="1"/>
-        <v>0.71111111110831116</v>
+        <v>1</v>
       </c>
       <c r="G102" s="17">
         <v>-0.15999999999937001</v>
@@ -36205,7 +36197,7 @@
       </c>
       <c r="E103" s="16">
         <f t="shared" si="1"/>
-        <v>0.66666666666382224</v>
+        <v>1</v>
       </c>
       <c r="G103" s="17">
         <v>-0.14999999999936001</v>
@@ -36244,7 +36236,7 @@
       </c>
       <c r="E104" s="16">
         <f t="shared" ref="E104:E167" si="6">IF(OR(D104&lt;=$B$8,D104&gt;=$E$8),0,IF(AND(D104&gt;=$C$8,D104&lt;=$D$8),1,IF(AND(D104&gt;=$B$8,D104&lt;=$C$8),$G$8*(D104-$B$8),IF(AND(D104&gt;=$D$8,D104&lt;=$E$8),$H$8*(D104-$E$8)))))</f>
-        <v>0.62222222221933343</v>
+        <v>1</v>
       </c>
       <c r="G104" s="17">
         <v>-0.13999999999935001</v>
@@ -36283,7 +36275,7 @@
       </c>
       <c r="E105" s="16">
         <f t="shared" si="6"/>
-        <v>0.57777777777484451</v>
+        <v>1</v>
       </c>
       <c r="G105" s="17">
         <v>-0.12999999999934</v>
@@ -36322,14 +36314,14 @@
       </c>
       <c r="E106" s="16">
         <f t="shared" si="6"/>
-        <v>0.5333333333303556</v>
+        <v>0.9999999999944168</v>
       </c>
       <c r="G106" s="17">
         <v>-0.11999999999933</v>
       </c>
       <c r="H106" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.5713119969380911E-12</v>
       </c>
       <c r="I106" s="14"/>
       <c r="J106" s="17">
@@ -36361,14 +36353,14 @@
       </c>
       <c r="E107" s="16">
         <f t="shared" si="6"/>
-        <v>0.48888888888586668</v>
+        <v>0.91666666666100005</v>
       </c>
       <c r="G107" s="17">
         <v>-0.10999999999932</v>
       </c>
       <c r="H107" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.14285714286685705</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="17">
@@ -36400,14 +36392,14 @@
       </c>
       <c r="E108" s="16">
         <f t="shared" si="6"/>
-        <v>0.44444444444137826</v>
+        <v>0.83333333332758419</v>
       </c>
       <c r="G108" s="17">
         <v>-9.9999999999310099E-2</v>
       </c>
       <c r="H108" s="15">
         <f t="shared" si="7"/>
-        <v>9.8558066469982858E-12</v>
+        <v>0.28571428572414137</v>
       </c>
       <c r="I108" s="14"/>
       <c r="J108" s="17">
@@ -36439,14 +36431,14 @@
       </c>
       <c r="E109" s="16">
         <f t="shared" si="6"/>
-        <v>0.39999999999688934</v>
+        <v>0.74999999999416755</v>
       </c>
       <c r="G109" s="17">
         <v>-8.9999999999300098E-2</v>
       </c>
       <c r="H109" s="15">
         <f t="shared" si="7"/>
-        <v>0.14285714286714152</v>
+        <v>0.42857142858142711</v>
       </c>
       <c r="I109" s="14"/>
       <c r="J109" s="17">
@@ -36478,14 +36470,14 @@
       </c>
       <c r="E110" s="16">
         <f t="shared" si="6"/>
-        <v>0.35555555555240043</v>
+        <v>0.66666666666075081</v>
       </c>
       <c r="G110" s="17">
         <v>-7.9999999999290097E-2</v>
       </c>
       <c r="H110" s="15">
         <f t="shared" si="7"/>
-        <v>0.28571428572442725</v>
+        <v>0.57142857143871284</v>
       </c>
       <c r="I110" s="14"/>
       <c r="J110" s="17">
@@ -36517,14 +36509,14 @@
       </c>
       <c r="E111" s="16">
         <f t="shared" si="6"/>
-        <v>0.31111111110791156</v>
+        <v>0.58333333332733417</v>
       </c>
       <c r="G111" s="17">
         <v>-6.9999999999280096E-2</v>
       </c>
       <c r="H111" s="15">
         <f t="shared" si="7"/>
-        <v>0.42857142858171293</v>
+        <v>0.71428571429599863</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="17">
@@ -36556,14 +36548,14 @@
       </c>
       <c r="E112" s="16">
         <f t="shared" si="6"/>
-        <v>0.2666666666634227</v>
+        <v>0.49999999999391753</v>
       </c>
       <c r="G112" s="17">
         <v>-5.9999999999270102E-2</v>
       </c>
       <c r="H112" s="15">
         <f t="shared" si="7"/>
-        <v>0.57142857143899861</v>
+        <v>0.8571428571532842</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="17">
@@ -36595,14 +36587,14 @@
       </c>
       <c r="E113" s="16">
         <f t="shared" si="6"/>
-        <v>0.22222222221893378</v>
+        <v>0.4166666666605009</v>
       </c>
       <c r="G113" s="17">
         <v>-4.9999999999260102E-2</v>
       </c>
       <c r="H113" s="15">
         <f t="shared" si="7"/>
-        <v>0.71428571429628429</v>
+        <v>1</v>
       </c>
       <c r="I113" s="14"/>
       <c r="J113" s="17">
@@ -36634,14 +36626,14 @@
       </c>
       <c r="E114" s="16">
         <f t="shared" si="6"/>
-        <v>0.1777777777744449</v>
+        <v>0.3333333333270842</v>
       </c>
       <c r="G114" s="17">
         <v>-3.9999999999250101E-2</v>
       </c>
       <c r="H114" s="15">
         <f t="shared" si="7"/>
-        <v>0.85714285715356997</v>
+        <v>1</v>
       </c>
       <c r="I114" s="14"/>
       <c r="J114" s="17">
@@ -36673,7 +36665,7 @@
       </c>
       <c r="E115" s="16">
         <f t="shared" si="6"/>
-        <v>0.13333333332995601</v>
+        <v>0.24999999999366751</v>
       </c>
       <c r="G115" s="17">
         <v>-2.99999999992401E-2</v>
@@ -36712,7 +36704,7 @@
       </c>
       <c r="E116" s="16">
         <f t="shared" si="6"/>
-        <v>8.8888888885467116E-2</v>
+        <v>0.16666666666025085</v>
       </c>
       <c r="G116" s="17">
         <v>-1.9999999999230099E-2</v>
@@ -36751,7 +36743,7 @@
       </c>
       <c r="E117" s="16">
         <f t="shared" si="6"/>
-        <v>4.4444444440978136E-2</v>
+        <v>8.3333333326834014E-2</v>
       </c>
       <c r="G117" s="17">
         <v>-9.9999999992200807E-3</v>
@@ -36802,7 +36794,7 @@
       </c>
       <c r="K118" s="15">
         <f t="shared" si="8"/>
-        <v>7.8992368202079904E-12</v>
+        <v>6.5826973501733253E-12</v>
       </c>
       <c r="M118" s="17">
         <v>7.8992368202079898E-13</v>
@@ -36839,7 +36831,7 @@
       </c>
       <c r="K119" s="15">
         <f t="shared" si="8"/>
-        <v>0.100000000007999</v>
+        <v>8.3333333339999177E-2</v>
       </c>
       <c r="M119" s="17">
         <v>1.00000000007999E-2</v>
@@ -36876,7 +36868,7 @@
       </c>
       <c r="K120" s="15">
         <f t="shared" si="8"/>
-        <v>0.200000000008099</v>
+        <v>0.16666666667341584</v>
       </c>
       <c r="M120" s="17">
         <v>2.0000000000809901E-2</v>
@@ -36906,14 +36898,14 @@
       </c>
       <c r="H121" s="15">
         <f t="shared" si="7"/>
-        <v>0.99999999998828715</v>
+        <v>1</v>
       </c>
       <c r="J121" s="17">
         <v>3.0000000000819899E-2</v>
       </c>
       <c r="K121" s="15">
         <f t="shared" si="8"/>
-        <v>0.30000000000819899</v>
+        <v>0.25000000000683248</v>
       </c>
       <c r="M121" s="17">
         <v>3.0000000000819899E-2</v>
@@ -36943,14 +36935,14 @@
       </c>
       <c r="H122" s="15">
         <f t="shared" si="7"/>
-        <v>0.85714285713100147</v>
+        <v>1</v>
       </c>
       <c r="J122" s="17">
         <v>4.0000000000829899E-2</v>
       </c>
       <c r="K122" s="15">
         <f t="shared" si="8"/>
-        <v>0.40000000000829899</v>
+        <v>0.33333333334024917</v>
       </c>
       <c r="M122" s="17">
         <v>4.0000000000829899E-2</v>
@@ -36980,14 +36972,14 @@
       </c>
       <c r="H123" s="15">
         <f t="shared" si="7"/>
-        <v>0.71428571427371579</v>
+        <v>0.99999999998800138</v>
       </c>
       <c r="J123" s="17">
         <v>5.00000000008399E-2</v>
       </c>
       <c r="K123" s="15">
         <f t="shared" si="8"/>
-        <v>0.50000000000839906</v>
+        <v>0.41666666667366586</v>
       </c>
       <c r="M123" s="17">
         <v>5.00000000008399E-2</v>
@@ -37017,14 +37009,14 @@
       </c>
       <c r="H124" s="15">
         <f t="shared" si="7"/>
-        <v>0.57142857141643</v>
+        <v>0.8571428571307157</v>
       </c>
       <c r="J124" s="17">
         <v>6.0000000000849901E-2</v>
       </c>
       <c r="K124" s="15">
         <f t="shared" si="8"/>
-        <v>0.60000000000849907</v>
+        <v>0.50000000000708256</v>
       </c>
       <c r="M124" s="17">
         <v>6.0000000000849901E-2</v>
@@ -37054,14 +37046,14 @@
       </c>
       <c r="H125" s="15">
         <f t="shared" si="7"/>
-        <v>0.42857142855914432</v>
+        <v>0.71428571427342991</v>
       </c>
       <c r="J125" s="17">
         <v>7.0000000000859902E-2</v>
       </c>
       <c r="K125" s="15">
         <f t="shared" si="8"/>
-        <v>0.70000000000859908</v>
+        <v>0.58333333334049919</v>
       </c>
       <c r="M125" s="17">
         <v>7.0000000000859902E-2</v>
@@ -37091,14 +37083,14 @@
       </c>
       <c r="H126" s="15">
         <f t="shared" si="7"/>
-        <v>0.28571428570185858</v>
+        <v>0.57142857141614423</v>
       </c>
       <c r="J126" s="17">
         <v>8.0000000000869903E-2</v>
       </c>
       <c r="K126" s="15">
         <f t="shared" si="8"/>
-        <v>0.80000000000869909</v>
+        <v>0.66666666667391594</v>
       </c>
       <c r="M126" s="17">
         <v>8.0000000000869903E-2</v>
@@ -37128,14 +37120,14 @@
       </c>
       <c r="H127" s="15">
         <f t="shared" si="7"/>
-        <v>0.14285714284457288</v>
+        <v>0.42857142855885849</v>
       </c>
       <c r="J127" s="17">
         <v>9.0000000000879904E-2</v>
       </c>
       <c r="K127" s="15">
         <f t="shared" si="8"/>
-        <v>0.90000000000879909</v>
+        <v>0.75000000000733258</v>
       </c>
       <c r="M127" s="17">
         <v>9.0000000000879904E-2</v>
@@ -37165,14 +37157,14 @@
       </c>
       <c r="H128" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.28571428570157137</v>
       </c>
       <c r="J128" s="17">
         <v>0.10000000000089</v>
       </c>
       <c r="K128" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.8333333333407501</v>
       </c>
       <c r="M128" s="17">
         <v>0.10000000000089</v>
@@ -37202,14 +37194,14 @@
       </c>
       <c r="H129" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.14285714284428561</v>
       </c>
       <c r="J129" s="17">
         <v>0.1100000000009</v>
       </c>
       <c r="K129" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.91666666667416674</v>
       </c>
       <c r="M129" s="17">
         <v>0.1100000000009</v>
@@ -37727,14 +37719,14 @@
       </c>
       <c r="K143" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.99999999999306677</v>
       </c>
       <c r="M143" s="17">
         <v>0.25000000000104</v>
       </c>
       <c r="N143" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.9333427887841018E-12</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -37764,14 +37756,14 @@
       </c>
       <c r="K144" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.93333333332633339</v>
       </c>
       <c r="M144" s="17">
         <v>0.26000000000105</v>
       </c>
       <c r="N144" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.6666666673666677E-2</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
@@ -37801,14 +37793,14 @@
       </c>
       <c r="K145" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.86666666665960002</v>
       </c>
       <c r="M145" s="17">
         <v>0.27000000000106</v>
       </c>
       <c r="N145" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.13333333334040001</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -37838,14 +37830,14 @@
       </c>
       <c r="K146" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.79999999999286675</v>
       </c>
       <c r="M146" s="17">
         <v>0.28000000000107</v>
       </c>
       <c r="N146" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.20000000000713333</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -37875,14 +37867,14 @@
       </c>
       <c r="K147" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.73333333332613337</v>
       </c>
       <c r="M147" s="17">
         <v>0.29000000000108</v>
       </c>
       <c r="N147" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.26666666667386668</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -37912,14 +37904,14 @@
       </c>
       <c r="K148" s="15">
         <f t="shared" si="8"/>
-        <v>0.99999999999515543</v>
+        <v>0.6666666666594</v>
       </c>
       <c r="M148" s="17">
         <v>0.30000000000109001</v>
       </c>
       <c r="N148" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.3333333333406</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -37949,14 +37941,14 @@
       </c>
       <c r="K149" s="15">
         <f t="shared" si="8"/>
-        <v>0.95555555555066662</v>
+        <v>0.59999999999266673</v>
       </c>
       <c r="M149" s="17">
         <v>0.31000000000110001</v>
       </c>
       <c r="N149" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.40000000000733332</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -37987,7 +37979,7 @@
       </c>
       <c r="K150" s="15">
         <f t="shared" si="8"/>
-        <v>0.91111111110617771</v>
+        <v>0.53333333332593336</v>
       </c>
       <c r="L150" s="14"/>
       <c r="M150" s="17">
@@ -37995,7 +37987,7 @@
       </c>
       <c r="N150" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.4666666666740667</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -38026,7 +38018,7 @@
       </c>
       <c r="K151" s="15">
         <f t="shared" si="8"/>
-        <v>0.86666666666168879</v>
+        <v>0.46666666665920004</v>
       </c>
       <c r="L151" s="14"/>
       <c r="M151" s="17">
@@ -38034,7 +38026,7 @@
       </c>
       <c r="N151" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.53333333334080002</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -38065,7 +38057,7 @@
       </c>
       <c r="K152" s="15">
         <f t="shared" si="8"/>
-        <v>0.82222222221719998</v>
+        <v>0.39999999999246671</v>
       </c>
       <c r="L152" s="14"/>
       <c r="M152" s="17">
@@ -38073,7 +38065,7 @@
       </c>
       <c r="N152" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.6000000000075334</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -38104,7 +38096,7 @@
       </c>
       <c r="K153" s="15">
         <f t="shared" si="8"/>
-        <v>0.77777777777271107</v>
+        <v>0.33333333332573339</v>
       </c>
       <c r="L153" s="14"/>
       <c r="M153" s="17">
@@ -38112,7 +38104,7 @@
       </c>
       <c r="N153" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.66666666667426666</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -38143,7 +38135,7 @@
       </c>
       <c r="K154" s="15">
         <f t="shared" si="8"/>
-        <v>0.73333333332822215</v>
+        <v>0.26666666665900007</v>
       </c>
       <c r="L154" s="14"/>
       <c r="M154" s="17">
@@ -38151,7 +38143,7 @@
       </c>
       <c r="N154" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.73333333334100004</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -38182,7 +38174,7 @@
       </c>
       <c r="K155" s="15">
         <f t="shared" si="8"/>
-        <v>0.68888888888373323</v>
+        <v>0.19999999999226672</v>
       </c>
       <c r="L155" s="14"/>
       <c r="M155" s="17">
@@ -38190,7 +38182,7 @@
       </c>
       <c r="N155" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.8000000000077333</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -38221,7 +38213,7 @@
       </c>
       <c r="K156" s="15">
         <f t="shared" si="8"/>
-        <v>0.64444444443924442</v>
+        <v>0.13333333332553338</v>
       </c>
       <c r="L156" s="14"/>
       <c r="M156" s="17">
@@ -38229,7 +38221,7 @@
       </c>
       <c r="N156" s="7">
         <f t="shared" si="9"/>
-        <v>3.333333334113342E-2</v>
+        <v>0.86666666667446668</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -38260,7 +38252,7 @@
       </c>
       <c r="K157" s="15">
         <f t="shared" si="8"/>
-        <v>0.59999999999475551</v>
+        <v>6.6666666658800056E-2</v>
       </c>
       <c r="L157" s="14"/>
       <c r="M157" s="17">
@@ -38268,7 +38260,7 @@
       </c>
       <c r="N157" s="7">
         <f t="shared" si="9"/>
-        <v>0.10000000000786675</v>
+        <v>0.93333333334120006</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -38299,7 +38291,7 @@
       </c>
       <c r="K158" s="15">
         <f t="shared" si="8"/>
-        <v>0.55555555555026659</v>
+        <v>0</v>
       </c>
       <c r="L158" s="14"/>
       <c r="M158" s="17">
@@ -38307,7 +38299,7 @@
       </c>
       <c r="N158" s="7">
         <f t="shared" si="9"/>
-        <v>0.16666666667460009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
@@ -38338,7 +38330,7 @@
       </c>
       <c r="K159" s="15">
         <f t="shared" si="8"/>
-        <v>0.51111111110577778</v>
+        <v>0</v>
       </c>
       <c r="L159" s="14"/>
       <c r="M159" s="17">
@@ -38346,7 +38338,7 @@
       </c>
       <c r="N159" s="7">
         <f t="shared" si="9"/>
-        <v>0.23333333334133341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
@@ -38377,7 +38369,7 @@
       </c>
       <c r="K160" s="15">
         <f t="shared" si="8"/>
-        <v>0.46666666666128886</v>
+        <v>0</v>
       </c>
       <c r="L160" s="14"/>
       <c r="M160" s="17">
@@ -38385,7 +38377,7 @@
       </c>
       <c r="N160" s="7">
         <f t="shared" si="9"/>
-        <v>0.30000000000806676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -38416,7 +38408,7 @@
       </c>
       <c r="K161" s="15">
         <f t="shared" si="8"/>
-        <v>0.42222222221679995</v>
+        <v>0</v>
       </c>
       <c r="L161" s="14"/>
       <c r="M161" s="17">
@@ -38424,7 +38416,7 @@
       </c>
       <c r="N161" s="7">
         <f t="shared" si="9"/>
-        <v>0.36666666667480008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -38455,7 +38447,7 @@
       </c>
       <c r="K162" s="15">
         <f t="shared" si="8"/>
-        <v>0.37777777777231109</v>
+        <v>0</v>
       </c>
       <c r="L162" s="14"/>
       <c r="M162" s="17">
@@ -38463,7 +38455,7 @@
       </c>
       <c r="N162" s="7">
         <f t="shared" si="9"/>
-        <v>0.4333333333415334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -38494,7 +38486,7 @@
       </c>
       <c r="K163" s="15">
         <f t="shared" si="8"/>
-        <v>0.33333333332782217</v>
+        <v>0</v>
       </c>
       <c r="L163" s="14"/>
       <c r="M163" s="17">
@@ -38502,7 +38494,7 @@
       </c>
       <c r="N163" s="7">
         <f t="shared" si="9"/>
-        <v>0.50000000000826672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -38533,7 +38525,7 @@
       </c>
       <c r="K164" s="15">
         <f t="shared" si="8"/>
-        <v>0.28888888888333331</v>
+        <v>0</v>
       </c>
       <c r="L164" s="14"/>
       <c r="M164" s="17">
@@ -38541,7 +38533,7 @@
       </c>
       <c r="N164" s="7">
         <f t="shared" si="9"/>
-        <v>0.5666666666750001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -38572,7 +38564,7 @@
       </c>
       <c r="K165" s="15">
         <f t="shared" si="8"/>
-        <v>0.24444444443884442</v>
+        <v>0</v>
       </c>
       <c r="L165" s="14"/>
       <c r="M165" s="17">
@@ -38580,7 +38572,7 @@
       </c>
       <c r="N165" s="7">
         <f t="shared" si="9"/>
-        <v>0.63333333334173336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -38611,7 +38603,7 @@
       </c>
       <c r="K166" s="15">
         <f t="shared" si="8"/>
-        <v>0.19999999999435553</v>
+        <v>0</v>
       </c>
       <c r="L166" s="14"/>
       <c r="M166" s="17">
@@ -38619,7 +38611,7 @@
       </c>
       <c r="N166" s="7">
         <f t="shared" si="9"/>
-        <v>0.70000000000846674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -38650,7 +38642,7 @@
       </c>
       <c r="K167" s="15">
         <f t="shared" si="8"/>
-        <v>0.15555555554986664</v>
+        <v>0</v>
       </c>
       <c r="L167" s="14"/>
       <c r="M167" s="17">
@@ -38658,7 +38650,7 @@
       </c>
       <c r="N167" s="7">
         <f t="shared" si="9"/>
-        <v>0.76666666667520011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -38689,7 +38681,7 @@
       </c>
       <c r="K168" s="15">
         <f t="shared" ref="K168:K198" si="13">IF(OR(J168&lt;=$B$10,J168&gt;=$E$10),0,IF(AND(J168&gt;=$C$10,J168&lt;=$D$10),1,IF(AND(J168&gt;=$B$10,J168&lt;=$C$10),$G$10*(J168-$B$10),IF(AND(J168&gt;=$D$10,J168&lt;=$E$10),$H$10*(J168-$E$10)))))</f>
-        <v>0.111111111105378</v>
+        <v>0</v>
       </c>
       <c r="L168" s="14"/>
       <c r="M168" s="17">
@@ -38697,7 +38689,7 @@
       </c>
       <c r="N168" s="7">
         <f t="shared" ref="N168:N198" si="14">IF(M168&lt;=$B$11,0,IF(M168&gt;=$C$11,1,$G$11*(M168-$B$11)))</f>
-        <v>0.83333333334193305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -38728,7 +38720,7 @@
       </c>
       <c r="K169" s="15">
         <f t="shared" si="13"/>
-        <v>6.6666666660889121E-2</v>
+        <v>0</v>
       </c>
       <c r="L169" s="14"/>
       <c r="M169" s="17">
@@ -38736,7 +38728,7 @@
       </c>
       <c r="N169" s="7">
         <f t="shared" si="14"/>
-        <v>0.90000000000866642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -38767,7 +38759,7 @@
       </c>
       <c r="K170" s="15">
         <f t="shared" si="13"/>
-        <v>2.2222222216400227E-2</v>
+        <v>0</v>
       </c>
       <c r="L170" s="14"/>
       <c r="M170" s="17">
@@ -38775,7 +38767,7 @@
       </c>
       <c r="N170" s="7">
         <f t="shared" si="14"/>
-        <v>0.96666666667539969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -40267,8 +40259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AA6EFE-CD62-433B-A946-8DC6807375C2}">
   <dimension ref="A1:N463"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40339,10 +40331,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -40358,7 +40350,7 @@
       </c>
       <c r="H7" s="9">
         <f>1/(B7-C7)</f>
-        <v>-20.000000000000004</v>
+        <v>-19.999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -40366,23 +40358,23 @@
         <v>16</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
       <c r="C8" s="7">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="D8" s="7">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="E8" s="11">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1">
         <f>1/(C8-B8)</f>
-        <v>20.000000000000004</v>
+        <v>19.999999999999993</v>
       </c>
       <c r="H8" s="1">
         <f>1/(D8-E8)</f>
@@ -40394,27 +40386,27 @@
         <v>17</v>
       </c>
       <c r="B9" s="7">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="C9" s="11">
-        <v>-0.05</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="D9" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E9" s="11">
         <v>0.05</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.1</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="1">
         <f>1/(C9-B9)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1">
         <f>1/(D9-E9)</f>
-        <v>-20</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -40422,16 +40414,16 @@
         <v>18</v>
       </c>
       <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
         <v>0.05</v>
       </c>
-      <c r="C10" s="11">
-        <v>0.1</v>
-      </c>
       <c r="D10" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="11">
         <v>0.2</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.25</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -40442,7 +40434,7 @@
       </c>
       <c r="H10" s="1">
         <f>1/(D10-E10)</f>
-        <v>-20.000000000000004</v>
+        <v>-19.999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -40450,10 +40442,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="C11" s="11">
         <v>0.2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.25</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -40466,7 +40458,7 @@
       </c>
       <c r="G11" s="1">
         <f>1/(C11-B11)</f>
-        <v>20.000000000000004</v>
+        <v>19.999999999999993</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -41751,14 +41743,14 @@
       </c>
       <c r="B69" s="10">
         <f t="shared" si="0"/>
-        <v>0.8999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D69" s="18">
         <v>-0.245</v>
       </c>
       <c r="E69" s="16">
         <f t="shared" si="1"/>
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G69" s="18">
         <v>-0.245</v>
@@ -41790,14 +41782,14 @@
       </c>
       <c r="B70" s="10">
         <f t="shared" si="0"/>
-        <v>0.79999999999999971</v>
+        <v>1</v>
       </c>
       <c r="D70" s="18">
         <v>-0.24</v>
       </c>
       <c r="E70" s="16">
         <f t="shared" si="1"/>
-        <v>0.20000000000000021</v>
+        <v>0</v>
       </c>
       <c r="G70" s="18">
         <v>-0.24</v>
@@ -41829,14 +41821,14 @@
       </c>
       <c r="B71" s="10">
         <f t="shared" si="0"/>
-        <v>0.69999999999999962</v>
+        <v>1</v>
       </c>
       <c r="D71" s="18">
         <v>-0.23499999999999999</v>
       </c>
       <c r="E71" s="16">
         <f t="shared" si="1"/>
-        <v>0.30000000000000032</v>
+        <v>0</v>
       </c>
       <c r="G71" s="18">
         <v>-0.23499999999999999</v>
@@ -41868,14 +41860,14 @@
       </c>
       <c r="B72" s="10">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>1</v>
       </c>
       <c r="D72" s="18">
         <v>-0.23</v>
       </c>
       <c r="E72" s="16">
         <f t="shared" si="1"/>
-        <v>0.39999999999999986</v>
+        <v>0</v>
       </c>
       <c r="G72" s="18">
         <v>-0.23</v>
@@ -41907,14 +41899,14 @@
       </c>
       <c r="B73" s="10">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D73" s="18">
         <v>-0.22500000000000001</v>
       </c>
       <c r="E73" s="16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G73" s="18">
         <v>-0.22500000000000001</v>
@@ -41946,14 +41938,14 @@
       </c>
       <c r="B74" s="10">
         <f t="shared" si="0"/>
-        <v>0.39999999999999986</v>
+        <v>1</v>
       </c>
       <c r="D74" s="18">
         <v>-0.22</v>
       </c>
       <c r="E74" s="16">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="G74" s="18">
         <v>-0.22</v>
@@ -41985,14 +41977,14 @@
       </c>
       <c r="B75" s="10">
         <f t="shared" si="0"/>
-        <v>0.29999999999999977</v>
+        <v>1</v>
       </c>
       <c r="D75" s="18">
         <v>-0.215</v>
       </c>
       <c r="E75" s="16">
         <f t="shared" si="1"/>
-        <v>0.70000000000000018</v>
+        <v>0</v>
       </c>
       <c r="G75" s="18">
         <v>-0.215</v>
@@ -42024,14 +42016,14 @@
       </c>
       <c r="B76" s="10">
         <f t="shared" si="0"/>
-        <v>0.19999999999999965</v>
+        <v>1</v>
       </c>
       <c r="D76" s="18">
         <v>-0.21</v>
       </c>
       <c r="E76" s="16">
         <f t="shared" si="1"/>
-        <v>0.80000000000000027</v>
+        <v>0</v>
       </c>
       <c r="G76" s="18">
         <v>-0.21</v>
@@ -42063,14 +42055,14 @@
       </c>
       <c r="B77" s="10">
         <f t="shared" si="0"/>
-        <v>9.9999999999999548E-2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="18">
         <v>-0.20499999999999999</v>
       </c>
       <c r="E77" s="16">
         <f t="shared" si="1"/>
-        <v>0.90000000000000036</v>
+        <v>0</v>
       </c>
       <c r="G77" s="18">
         <v>-0.20499999999999999</v>
@@ -42102,14 +42094,14 @@
       </c>
       <c r="B78" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="18">
         <v>-0.2</v>
       </c>
       <c r="E78" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="18">
         <v>-0.2</v>
@@ -42141,14 +42133,14 @@
       </c>
       <c r="B79" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="D79" s="18">
         <v>-0.19500000000000001</v>
       </c>
       <c r="E79" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.10000000000000005</v>
       </c>
       <c r="G79" s="18">
         <v>-0.19500000000000001</v>
@@ -42180,14 +42172,14 @@
       </c>
       <c r="B80" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="D80" s="18">
         <v>-0.19</v>
       </c>
       <c r="E80" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.20000000000000009</v>
       </c>
       <c r="G80" s="18">
         <v>-0.19</v>
@@ -42219,14 +42211,14 @@
       </c>
       <c r="B81" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.69999999999999984</v>
       </c>
       <c r="D81" s="18">
         <v>-0.185</v>
       </c>
       <c r="E81" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.30000000000000016</v>
       </c>
       <c r="G81" s="18">
         <v>-0.185</v>
@@ -42258,14 +42250,14 @@
       </c>
       <c r="B82" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.59999999999999976</v>
       </c>
       <c r="D82" s="18">
         <v>-0.18</v>
       </c>
       <c r="E82" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.40000000000000019</v>
       </c>
       <c r="G82" s="18">
         <v>-0.18</v>
@@ -42297,14 +42289,14 @@
       </c>
       <c r="B83" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.49999999999999972</v>
       </c>
       <c r="D83" s="18">
         <v>-0.17499999999999999</v>
       </c>
       <c r="E83" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.50000000000000022</v>
       </c>
       <c r="G83" s="18">
         <v>-0.17499999999999999</v>
@@ -42336,14 +42328,14 @@
       </c>
       <c r="B84" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.40000000000000019</v>
       </c>
       <c r="D84" s="18">
         <v>-0.17</v>
       </c>
       <c r="E84" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.59999999999999976</v>
       </c>
       <c r="G84" s="18">
         <v>-0.17</v>
@@ -42375,14 +42367,14 @@
       </c>
       <c r="B85" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30000000000000016</v>
       </c>
       <c r="D85" s="18">
         <v>-0.16500000000000001</v>
       </c>
       <c r="E85" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.69999999999999984</v>
       </c>
       <c r="G85" s="18">
         <v>-0.16500000000000001</v>
@@ -42414,14 +42406,14 @@
       </c>
       <c r="B86" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20000000000000009</v>
       </c>
       <c r="D86" s="18">
         <v>-0.16</v>
       </c>
       <c r="E86" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="G86" s="18">
         <v>-0.16</v>
@@ -42453,14 +42445,14 @@
       </c>
       <c r="B87" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10000000000000005</v>
       </c>
       <c r="D87" s="18">
         <v>-0.155</v>
       </c>
       <c r="E87" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G87" s="18">
         <v>-0.155</v>
@@ -42928,14 +42920,14 @@
       </c>
       <c r="E99" s="16">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="G99" s="18">
         <v>-9.5000000000000001E-2</v>
       </c>
       <c r="H99" s="15">
         <f t="shared" si="2"/>
-        <v>0.10000000000000009</v>
+        <v>0</v>
       </c>
       <c r="I99" s="14"/>
       <c r="J99" s="18">
@@ -42967,14 +42959,14 @@
       </c>
       <c r="E100" s="16">
         <f t="shared" si="1"/>
-        <v>0.79999999999999982</v>
+        <v>1</v>
       </c>
       <c r="G100" s="18">
         <v>-0.09</v>
       </c>
       <c r="H100" s="15">
         <f t="shared" si="2"/>
-        <v>0.20000000000000018</v>
+        <v>0</v>
       </c>
       <c r="I100" s="14"/>
       <c r="J100" s="18">
@@ -43006,14 +42998,14 @@
       </c>
       <c r="E101" s="16">
         <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
+        <v>1</v>
       </c>
       <c r="G101" s="18">
         <v>-8.5000000000000006E-2</v>
       </c>
       <c r="H101" s="15">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I101" s="14"/>
       <c r="J101" s="18">
@@ -43045,14 +43037,14 @@
       </c>
       <c r="E102" s="16">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G102" s="18">
         <v>-0.08</v>
       </c>
       <c r="H102" s="15">
         <f t="shared" si="2"/>
-        <v>0.40000000000000008</v>
+        <v>0</v>
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="18">
@@ -43084,14 +43076,14 @@
       </c>
       <c r="E103" s="16">
         <f t="shared" si="1"/>
-        <v>0.49999999999999989</v>
+        <v>1</v>
       </c>
       <c r="G103" s="18">
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="H103" s="15">
         <f t="shared" si="2"/>
-        <v>0.50000000000000022</v>
+        <v>0</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="18">
@@ -43123,14 +43115,14 @@
       </c>
       <c r="E104" s="16">
         <f t="shared" ref="E104:E167" si="6">IF(OR(D104&lt;=$B$8,D104&gt;=$E$8),0,IF(AND(D104&gt;=$C$8,D104&lt;=$D$8),1,IF(AND(D104&gt;=$B$8,D104&lt;=$C$8),$G$8*(D104-$B$8),IF(AND(D104&gt;=$D$8,D104&lt;=$E$8),$H$8*(D104-$E$8)))))</f>
-        <v>0.40000000000000008</v>
+        <v>1</v>
       </c>
       <c r="G104" s="18">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H104" s="15">
         <f t="shared" ref="H104:H167" si="7">IF(OR(G104&lt;=$B$9,G104&gt;=$E$9),0,IF(AND(G104&gt;=$C$9,G104&lt;=$D$9),1,IF(AND(G104&gt;=$B$9,G104&lt;=$C$9),$G$9*(G104-$B$9),IF(AND(G104&gt;=$D$9,G104&lt;=$E$9),$H$9*(G104-$E$9)))))</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I104" s="14"/>
       <c r="J104" s="18">
@@ -43162,14 +43154,14 @@
       </c>
       <c r="E105" s="16">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G105" s="18">
         <v>-6.5000000000000002E-2</v>
       </c>
       <c r="H105" s="15">
         <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
+        <v>0</v>
       </c>
       <c r="I105" s="14"/>
       <c r="J105" s="18">
@@ -43201,14 +43193,14 @@
       </c>
       <c r="E106" s="16">
         <f t="shared" si="6"/>
-        <v>0.1999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G106" s="18">
         <v>-0.06</v>
       </c>
       <c r="H106" s="15">
         <f t="shared" si="7"/>
-        <v>0.80000000000000016</v>
+        <v>0</v>
       </c>
       <c r="I106" s="14"/>
       <c r="J106" s="18">
@@ -43240,14 +43232,14 @@
       </c>
       <c r="E107" s="16">
         <f t="shared" si="6"/>
-        <v>9.999999999999995E-2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="18">
         <v>-5.5E-2</v>
       </c>
       <c r="H107" s="15">
         <f t="shared" si="7"/>
-        <v>0.90000000000000013</v>
+        <v>0</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="18">
@@ -43279,14 +43271,14 @@
       </c>
       <c r="E108" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="18">
         <v>-0.05</v>
       </c>
       <c r="H108" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" s="14"/>
       <c r="J108" s="18">
@@ -43318,14 +43310,14 @@
       </c>
       <c r="E109" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G109" s="18">
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="H109" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="I109" s="14"/>
       <c r="J109" s="18">
@@ -43357,14 +43349,14 @@
       </c>
       <c r="E110" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G110" s="18">
         <v>-0.04</v>
       </c>
       <c r="H110" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="I110" s="14"/>
       <c r="J110" s="18">
@@ -43396,14 +43388,14 @@
       </c>
       <c r="E111" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="G111" s="18">
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="H111" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="18">
@@ -43435,14 +43427,14 @@
       </c>
       <c r="E112" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G112" s="18">
         <v>-0.03</v>
       </c>
       <c r="H112" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="18">
@@ -43474,7 +43466,7 @@
       </c>
       <c r="E113" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G113" s="18">
         <v>-2.5000000000000001E-2</v>
@@ -43513,7 +43505,7 @@
       </c>
       <c r="E114" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G114" s="18">
         <v>-0.02</v>
@@ -43552,7 +43544,7 @@
       </c>
       <c r="E115" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G115" s="18">
         <v>-1.4999999999999999E-2</v>
@@ -43591,7 +43583,7 @@
       </c>
       <c r="E116" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G116" s="18">
         <v>-0.01</v>
@@ -43630,7 +43622,7 @@
       </c>
       <c r="E117" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G117" s="18">
         <v>-5.0000000000000001E-3</v>
@@ -43718,7 +43710,7 @@
       </c>
       <c r="K119" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M119" s="18">
         <v>5.0000000000000001E-3</v>
@@ -43755,7 +43747,7 @@
       </c>
       <c r="K120" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="M120" s="18">
         <v>9.9999999999999499E-3</v>
@@ -43792,7 +43784,7 @@
       </c>
       <c r="K121" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M121" s="18">
         <v>1.4999999999999999E-2</v>
@@ -43829,7 +43821,7 @@
       </c>
       <c r="K122" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M122" s="18">
         <v>0.02</v>
@@ -43866,7 +43858,7 @@
       </c>
       <c r="K123" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M123" s="18">
         <v>2.5000000000000001E-2</v>
@@ -43896,14 +43888,14 @@
       </c>
       <c r="H124" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="J124" s="18">
         <v>0.03</v>
       </c>
       <c r="K124" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M124" s="18">
         <v>0.03</v>
@@ -43933,14 +43925,14 @@
       </c>
       <c r="H125" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J125" s="18">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K125" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="M125" s="18">
         <v>3.5000000000000003E-2</v>
@@ -43970,14 +43962,14 @@
       </c>
       <c r="H126" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="J126" s="18">
         <v>0.04</v>
       </c>
       <c r="K126" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M126" s="18">
         <v>0.04</v>
@@ -44007,14 +43999,14 @@
       </c>
       <c r="H127" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="J127" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K127" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M127" s="18">
         <v>4.4999999999999998E-2</v>
@@ -44044,14 +44036,14 @@
       </c>
       <c r="H128" s="15">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="18">
         <v>0.05</v>
       </c>
       <c r="K128" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" s="18">
         <v>0.05</v>
@@ -44081,14 +44073,14 @@
       </c>
       <c r="H129" s="15">
         <f t="shared" si="7"/>
-        <v>0.90000000000000013</v>
+        <v>0</v>
       </c>
       <c r="J129" s="18">
         <v>5.5E-2</v>
       </c>
       <c r="K129" s="15">
         <f t="shared" si="8"/>
-        <v>9.999999999999995E-2</v>
+        <v>1</v>
       </c>
       <c r="M129" s="18">
         <v>5.5E-2</v>
@@ -44118,14 +44110,14 @@
       </c>
       <c r="H130" s="15">
         <f t="shared" si="7"/>
-        <v>0.80000000000000016</v>
+        <v>0</v>
       </c>
       <c r="J130" s="18">
         <v>0.06</v>
       </c>
       <c r="K130" s="15">
         <f t="shared" si="8"/>
-        <v>0.1999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M130" s="18">
         <v>0.06</v>
@@ -44155,14 +44147,14 @@
       </c>
       <c r="H131" s="15">
         <f t="shared" si="7"/>
-        <v>0.70000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J131" s="18">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K131" s="15">
         <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M131" s="18">
         <v>6.5000000000000002E-2</v>
@@ -44192,14 +44184,14 @@
       </c>
       <c r="H132" s="15">
         <f t="shared" si="7"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J132" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K132" s="15">
         <f t="shared" si="8"/>
-        <v>0.40000000000000008</v>
+        <v>1</v>
       </c>
       <c r="M132" s="18">
         <v>7.0000000000000007E-2</v>
@@ -44229,14 +44221,14 @@
       </c>
       <c r="H133" s="15">
         <f t="shared" si="7"/>
-        <v>0.50000000000000022</v>
+        <v>0</v>
       </c>
       <c r="J133" s="18">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K133" s="15">
         <f t="shared" si="8"/>
-        <v>0.49999999999999989</v>
+        <v>1</v>
       </c>
       <c r="M133" s="18">
         <v>7.4999999999999997E-2</v>
@@ -44266,14 +44258,14 @@
       </c>
       <c r="H134" s="15">
         <f t="shared" si="7"/>
-        <v>0.40000000000000008</v>
+        <v>0</v>
       </c>
       <c r="J134" s="18">
         <v>0.08</v>
       </c>
       <c r="K134" s="15">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M134" s="18">
         <v>0.08</v>
@@ -44303,14 +44295,14 @@
       </c>
       <c r="H135" s="15">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J135" s="18">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="K135" s="15">
         <f t="shared" si="8"/>
-        <v>0.70000000000000007</v>
+        <v>1</v>
       </c>
       <c r="M135" s="18">
         <v>8.5000000000000006E-2</v>
@@ -44340,14 +44332,14 @@
       </c>
       <c r="H136" s="15">
         <f t="shared" si="7"/>
-        <v>0.20000000000000018</v>
+        <v>0</v>
       </c>
       <c r="J136" s="18">
         <v>0.09</v>
       </c>
       <c r="K136" s="15">
         <f t="shared" si="8"/>
-        <v>0.79999999999999982</v>
+        <v>1</v>
       </c>
       <c r="M136" s="18">
         <v>0.09</v>
@@ -44377,14 +44369,14 @@
       </c>
       <c r="H137" s="15">
         <f t="shared" si="7"/>
-        <v>0.10000000000000009</v>
+        <v>0</v>
       </c>
       <c r="J137" s="18">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="K137" s="15">
         <f t="shared" si="8"/>
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="M137" s="18">
         <v>9.5000000000000001E-2</v>
@@ -44828,14 +44820,14 @@
       </c>
       <c r="K149" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M149" s="18">
         <v>0.155</v>
       </c>
       <c r="N149" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.10000000000000005</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -44866,7 +44858,7 @@
       </c>
       <c r="K150" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="L150" s="14"/>
       <c r="M150" s="18">
@@ -44874,7 +44866,7 @@
       </c>
       <c r="N150" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.20000000000000009</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -44905,7 +44897,7 @@
       </c>
       <c r="K151" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.69999999999997986</v>
       </c>
       <c r="L151" s="14"/>
       <c r="M151" s="18">
@@ -44913,7 +44905,7 @@
       </c>
       <c r="N151" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.30000000000002014</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -44944,7 +44936,7 @@
       </c>
       <c r="K152" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.59999999999997977</v>
       </c>
       <c r="L152" s="14"/>
       <c r="M152" s="18">
@@ -44952,7 +44944,7 @@
       </c>
       <c r="N152" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.40000000000002017</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -44983,7 +44975,7 @@
       </c>
       <c r="K153" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.49999999999998029</v>
       </c>
       <c r="L153" s="14"/>
       <c r="M153" s="18">
@@ -44991,7 +44983,7 @@
       </c>
       <c r="N153" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.50000000000001965</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -45022,7 +45014,7 @@
       </c>
       <c r="K154" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.3999999999999802</v>
       </c>
       <c r="L154" s="14"/>
       <c r="M154" s="18">
@@ -45030,7 +45022,7 @@
       </c>
       <c r="N154" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.60000000000001974</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -45061,7 +45053,7 @@
       </c>
       <c r="K155" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.29999999999998017</v>
       </c>
       <c r="L155" s="14"/>
       <c r="M155" s="18">
@@ -45069,7 +45061,7 @@
       </c>
       <c r="N155" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.70000000000001983</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -45100,7 +45092,7 @@
       </c>
       <c r="K156" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.19999999999998011</v>
       </c>
       <c r="L156" s="14"/>
       <c r="M156" s="18">
@@ -45108,7 +45100,7 @@
       </c>
       <c r="N156" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.80000000000001981</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -45139,7 +45131,7 @@
       </c>
       <c r="K157" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>9.9999999999980063E-2</v>
       </c>
       <c r="L157" s="14"/>
       <c r="M157" s="18">
@@ -45147,7 +45139,7 @@
       </c>
       <c r="N157" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.9000000000000199</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -45178,7 +45170,7 @@
       </c>
       <c r="K158" s="15">
         <f t="shared" si="8"/>
-        <v>0.99999999999998002</v>
+        <v>0</v>
       </c>
       <c r="L158" s="14"/>
       <c r="M158" s="18">
@@ -45186,7 +45178,7 @@
       </c>
       <c r="N158" s="7">
         <f t="shared" si="9"/>
-        <v>1.9984014443252821E-14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
@@ -45217,7 +45209,7 @@
       </c>
       <c r="K159" s="15">
         <f t="shared" si="8"/>
-        <v>0.89999999999998037</v>
+        <v>0</v>
       </c>
       <c r="L159" s="14"/>
       <c r="M159" s="18">
@@ -45225,7 +45217,7 @@
       </c>
       <c r="N159" s="7">
         <f t="shared" si="9"/>
-        <v>0.10000000000001953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
@@ -45256,7 +45248,7 @@
       </c>
       <c r="K160" s="15">
         <f t="shared" si="8"/>
-        <v>0.79999999999998028</v>
+        <v>0</v>
       </c>
       <c r="L160" s="14"/>
       <c r="M160" s="18">
@@ -45264,7 +45256,7 @@
       </c>
       <c r="N160" s="7">
         <f t="shared" si="9"/>
-        <v>0.20000000000001963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -45295,7 +45287,7 @@
       </c>
       <c r="K161" s="15">
         <f t="shared" si="8"/>
-        <v>0.69999999999998019</v>
+        <v>0</v>
       </c>
       <c r="L161" s="14"/>
       <c r="M161" s="18">
@@ -45303,7 +45295,7 @@
       </c>
       <c r="N161" s="7">
         <f t="shared" si="9"/>
-        <v>0.30000000000001975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -45334,7 +45326,7 @@
       </c>
       <c r="K162" s="15">
         <f t="shared" si="8"/>
-        <v>0.5999999999999801</v>
+        <v>0</v>
       </c>
       <c r="L162" s="14"/>
       <c r="M162" s="18">
@@ -45342,7 +45334,7 @@
       </c>
       <c r="N162" s="7">
         <f t="shared" si="9"/>
-        <v>0.40000000000001984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -45373,7 +45365,7 @@
       </c>
       <c r="K163" s="15">
         <f t="shared" si="8"/>
-        <v>0.49999999999998002</v>
+        <v>0</v>
       </c>
       <c r="L163" s="14"/>
       <c r="M163" s="18">
@@ -45381,7 +45373,7 @@
       </c>
       <c r="N163" s="7">
         <f t="shared" si="9"/>
-        <v>0.50000000000001998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -45412,7 +45404,7 @@
       </c>
       <c r="K164" s="15">
         <f t="shared" si="8"/>
-        <v>0.39999999999997987</v>
+        <v>0</v>
       </c>
       <c r="L164" s="14"/>
       <c r="M164" s="18">
@@ -45420,7 +45412,7 @@
       </c>
       <c r="N164" s="7">
         <f t="shared" si="9"/>
-        <v>0.60000000000002007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -45451,7 +45443,7 @@
       </c>
       <c r="K165" s="15">
         <f t="shared" si="8"/>
-        <v>0.29999999999997978</v>
+        <v>0</v>
       </c>
       <c r="L165" s="14"/>
       <c r="M165" s="18">
@@ -45459,7 +45451,7 @@
       </c>
       <c r="N165" s="7">
         <f t="shared" si="9"/>
-        <v>0.70000000000002016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -45490,7 +45482,7 @@
       </c>
       <c r="K166" s="15">
         <f t="shared" si="8"/>
-        <v>0.19999999999998022</v>
+        <v>0</v>
       </c>
       <c r="L166" s="14"/>
       <c r="M166" s="18">
@@ -45498,7 +45490,7 @@
       </c>
       <c r="N166" s="7">
         <f t="shared" si="9"/>
-        <v>0.8000000000000197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -45529,7 +45521,7 @@
       </c>
       <c r="K167" s="15">
         <f t="shared" si="8"/>
-        <v>9.9999999999980119E-2</v>
+        <v>0</v>
       </c>
       <c r="L167" s="14"/>
       <c r="M167" s="18">
@@ -45537,7 +45529,7 @@
       </c>
       <c r="N167" s="7">
         <f t="shared" si="9"/>
-        <v>0.90000000000001978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
